--- a/deuChatbot/research_result/results/bleu_score/bleu_version_2(3500_400).xlsx
+++ b/deuChatbot/research_result/results/bleu_score/bleu_version_2(3500_400).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D204"/>
+  <dimension ref="A1:D305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6266,61 +6266,3605 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>GPT-4o-mini Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t xml:space="preserve"> 제공된 정보만으로는 디자인조형학과의 실기시험 내용을 정확히 알 수 없습니다. 그러나 일반적인 대학 입시에서 디자인조형학과의 실기 시험은 다음과 같은 특징들을 가질 수 있습니다:
+1. 그림 그리기: 다양한 주제에 대한 시간 내 그림 그리기를 요구할 수 있습니다.
+2. 색채 작업: 색칠이나 채색을 포함한 색채 작업을 평가하는 경우가 많습니다.
+3. 모형 제작: 3D 모델링이나 조각 등을 만드는 실기 시험도 있을 수 있습니다.
+4. 디자인 테스트: 제품 디자인, 패션 디자인 등 특정 분야의 디자인 작업을 평가할 수도 있습니다.
+5. 창의력 평가: 독창적인 아이디어와 표현력을 평가하기 위해 자유 주제로 그림을 그리는 경우도 있습니다.
+6. 기술적 능력: 도구 사용, 색상 섞기 등 기본 기술을 평가할 수 있습니다.
+7. 시간 관리: 일정 시간 내에 작업을 완료하는 능력을 평가하기 위해 제한된 시간 동안 실기를 진행할 수도 있습니다.
+8. 표현력: 작품의 표현력과 감각을 평가합니다.
+9. 주제 이해도: 주어진 주제를 잘 이해하고 그릴 수 있는지 평가합니다.
+10. 세부 작업: 세밀한 부분까지 잘 그리는 능력을 평가할 수도 있습니다.
+실제 시험 내용은 각 대학의 입시 계획과 전공 특성에 따라 다를 수 있으므로, 디자인조형학과에 지원하는 경우 해당 대학의 공식 입시 안내서나 홈페이지에서 가장 정확한 정보를 확인해야 합니다.</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>0.339790265538628</v>
+        <v>0.2531726913664281</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Google Gemma-2-9b-it Average</t>
+          <t>Qwen2.5-7B-instruct</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>디자인조형학과의 실기 종목은 다음과 같습니다:
+1. **실기 종목**:
+   - 기초디자인
+   - 사고의 전환
+2. **준비물**:
+   - 볼펜
+   - 연필
+   - 색연필
+   - 수채물감 등 표현에 필요한 도구
+3. **실기 주제**:
+   - 주제 A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+   - 주제 B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+4. **화지 크기**:
+   - 켄트지 3절 (Kenki 3/4)
+5. **시험 시간**:
+   - 5시간
+주제는 당일 추첨을 통해 각각 주제 A와 주제 B에서 하나씩 선택하여 연결된 주제로 결정됩니다. 제공된 사물과 이미지는 그대로 사용해야 하며, 다른 형상은 표현하지 않아야 합니다. 또한 색상 변경도 금지되어 있습니다.</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>0.1858360492978209</v>
+        <v>0.4680168796601745</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2024학년도 동계경기대회, 2023년도 전국체육대회, 2023년도 권역체육대회, 2023년도 광역시·도체육대회, 2023년도 고교야구리그, 2023년도 KBO U-18 챔피언십, 2023년도 전국고교축구리그, 2023년도 전국고교배드민턴리그, 2023년도 전국고교탁구리그, 2023년도 전국고교농구리그, 2023년도 전국고교체조대회, 2023년도 전국고교수영대회, 2023년도 전국고교배드민턴리그, 2023년도 전국고교탁구리그, 2023년도 전국고교농구리그, 2023년도 전국고교체조대회, 2023년도 전국고교수영대회 등이 경기지도학과 모집종목별 인정대회로 인정됩니다.
+각 종목 별로 상세한 기준은 다음과 같습니다:
+- 배드민턴(남): 
+  - 1등급: 현·전 국가대표 (점수 700)
+  - 2등급: 2023년도 전국대회 개인전 3위 이내 입상자 (점수 600)
+  - 3등급: 국가대표 후보선수(주니어대표 경력 합숙훈련 3년 이상) 2023년도 전국대회 단체전 1위 입상자, 2021~2022년도 전국대회 개인전 2위 이내 입상자 (점수 500)
+  - 4등급: 국가대표 후보선수(주니어대표 경력 합숙훈련 2년 이상) 2023년도 전국대회 단체전 2~3위 입상자, 2023년도 전국대회 개인전 8강 입상자, 2021~2022년도 전국대회 개인전 3위 입상자 (점수 400)
+  - 5등급: 국가대표 후보선수(주니어대표 경력 합숙훈련 1년 이상) 2023년도 전국대회 단체전 8강 이내 입상자, 2023년도 전국대회 개인전 16강 입상자, 2021~2022년도 전국대회 개인전 8강 입상자, 2023년도 광역시·도 대회 개인전 4강 이내 입상자 (점수 300)
+  - 6등급: 2023년도 전국대회 개인전 32강 입상자, 2021~2022년도 전국대회 개인전 16강 입상자, 2023년도 전국대회 단체전 16강 이내 입상자, 2021~2022년도 광역시·도 대회 개인전 8강 이내 입상자 (점수 0)
+- 축구(남): 
+  - 1등급: 현·전 청소년대표, 국가대표 2023년 전국대회 우승 및 준우승 입상자 중 경기출전 70% 이상 선수, 2023년 권역별고교축구리그 우승 입상자 중 경기출전 70% 이상 선수, 2023년 K리그 U-18 챔피언십의 4위 이내 입상자 중 경기출전 70% 이상 선수 (점수 700)
+  - 2등급: 2023년 전국대회 우승 및 준우승 입상자 중 경기출전 60% 이상 선수, 2023년 전국대회 4강 입상자 중 경기출전 70% 이상 선수, 2023년 권역별고교축구리그 2위 입상자 중 경기출전 70% 이상 선수, 2023년 K리그 U-18 챔피언십의 8위 이내입상자 중 경기출전 70% 이상 선수 (점수 600)
+  - 3등급: 2023년 전국대회 4강 입상자 중 경기출전 60% 이상 선수, 2023년 전국대회 8강 입상자 중 경기출전 80% 이상 선수, 2023년 권역별고교축구리그 3위 입상자 중 경기출전 70% 이상 선수, 2023년 K리그 U-18 챔피언십의 경기출전 70% 이상 선수 (점수 500)
+  - 4등급: 2023년 전국대회 4강 입상자 중 경기출전 50% 이상 선수, 2023년 전국대회 8강 입상자 중 경기출전 70% 이상 선수, 2023년 권역별고교축구리그 4위 이내 및 K리그 U-18 챔피언십의 경기출전 40% 이상 선수 (점수 400)
+  - 5등급: 2023년 전국대회 4강 입상자 중 경기출전 40% 이상 선수, 2023년 전국대회 8강 입상자 중 경기출전 60% 이상 선수, 2023년 K리그 U-18 챔피언십의 경기출전 30% 이상 선수 (점수 300)
+  - 6등급: 2023년도 전국대회 개인전 32강 입상자, 2021~2022년도 전국대회 개인전 16강 입상자, 2023년도 전국대회 단체전 16강 이내 입상자, 2021~2022년도 광역시·도 대회 개인전 8강 이내 입상자 (점수 0)
+이러한 대회의 성적은 경기지도학과 모집종목별로 인정되며, 각 종목 별 등급에 따라 점수가 부여됩니다.</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>0.05012561353545186</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 사용되는 주제는 다음과 같습니다:
+1. 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 이 두 가지 주제 중 각각 1개씩을 추첨하여 연결된 주제를 준비해야 합니다. 예를 들어 "잠자리와 저울"과 같은 주제를 받게 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>0.7800116170521088</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 학생부교과 전형에서 출결 점수는 일반적으로 반영되지 않습니다. 
+예를 들어:
+- 나군 실기/실적(일반학생전형)에서는 학생부 교과 0%, 출결 0%, 서류 70%, 면접 30%로 구성되어 있습니다.
+- 나군 학생부교과(성인학습자(정원내)전형)에서는 학생부 교과 0%, 출결 0%, 서류 70%, 면접 30%로 구성되어 있습니다.
+따라서, 현재 제공된 정보에 따르면 출결 점수가 학생부교과 전형에서 반영되지 않는 것으로 보입니다. 하지만 특정 단과대학이나 모집단위에서는 예외적으로 출결을 일부 반영할 수 있으므로, 최종적인 정책은 해당 대학의 공식 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>7.734960444462201e-05</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2024학년도 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 9명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>0.7666368435504358</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학의 계열은 인문사회이며, 모집단위는 영어영문학과 - 교직이고, 해당 모집단위의 정원 내 모집 인원이 28명이라는 정보가 제공되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>0.1891754395929277</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과 - 교직 - 간호교육인증의 나군 일반 학생 전형 모집 인원은 22명입니다.</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>0.5405327210172244</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+- 등급 1 : 139점
+- 등급 2 : 131점 
+- 등급 3 : 123점
+- 등급 4 : 115점
+- 등급 5 : 107점
+- 등급 6 : 99점
+- 등급 7 : 91점
+- 등급 8 : 83점
+- 등급 9 : 75점</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>0.7514683195651968</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예, 예술고 학생도 나군 학생부교과 농어촌학생전형으로 지원 가능합니다. 
+주요 내용 요약:
+- 지원 자격: 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수한 자
+- 재학기간 동안 본인 및 부모 모두가 농어촌 지역에 거주한 자 (부모가 사망하거나 이혼한 경우 제외)
+- 지원 자격 증빙서류: 가족관계증명서, 주민등록초본, 학교생활기록부 등
+따라서 예술고 학생이 농어촌 지역에 소재하는 중·고등학교에서 재학하며 부모와 함께 농어촌 지역에 거주했다면 해당 전형으로 지원 가능합니다. 다만, 구체적인 자격 요건과 제출 서류는 대학 입시 홈페이지를 확인하시거나 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>0.1015606082788899</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>4등급의 레저스포츠학과 여자 제자리 멀리뛰기의 기록은 218~221cm이며, 배점은 275점입니다.</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>0.563163142406983</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과의 출결 반영 비율은 12%입니다.
+이 정보는 "전형요소 반영비율" 섹션에서 경기지도학과 관련된 내용을 통해 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>0.0644454928936414</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>0.9472652833627722</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과(시각디자인, 산업디자인, 공예디자인)의 실기고사는 2024년 1월 17일(수)에 진행됩니다.
+추가 정보:
+- 모집단위: 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+- 일정: 2024. 01. 17.(수)
+- 실기종목(택1): 기초디자인, 사고의 전환
+- 종목별 배점(비율): 기초디자인 - 700점(70%), 사고의 전환 - 700점(70%)
+참조하시려면 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [UWAY APPLY 사이트](http://www.uwayapply.com)를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>5.070017824039885e-07</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교 2024학년도 응용화학과의 수능 최저기준에 대한 명시는 없습니다. 
+전형요소 반영비율 부분에서는 수능 최저기준이 없음을 나타내고 있지만, 특정 단과대학 및 전공별로 정해진 수능 최저기준이 있는 경우도 있을 수 있습니다.
+따라서 동의대학교 응용화학과의 2024학년도 수능 최저기준을 확인하려면 다음과 같은 방법을 추천드립니다:
+1. 동의대학교 공식 홈페이지를 방문하여 2024학년도 입시 안내 페이지를 확인합니다.
+2. 입시 안내나 전형요건 섹션에서 각 단과대학 및 전공별 수능 최저기준을 찾아보세요.
+3. 필요하다면 대학 입학처에 직접 문의하여 자세한 정보를 얻으세요.
+이러한 방법들을 통해 정확한 수능 최저기준을 확인하실 수 있을 것입니다.</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>3.890364948182693e-10</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같은 학부가 있습니다:
+1. 미래융합대학 - 라이프융합학부 (신설)
+   - 신설 과정: 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학
+2. 미래융합대학 - 부동산자산경영학부 (신설)
+   - 신설 과정: 부동산투자학, 부동산개발경영학
+이러한 신설 학과들은 2024학년도부터 입학생을 받게 됩니다.</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>0.3915153166465994</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류: 70%
+- 면접: 30%
+이 비율은 모든 모집단위에 적용되는 일반적인 규칙입니다.</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>0.4325007851533212</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>东义大学在一些特定的学部和学科中应用了高考加分政策。根据提供的信息，以下是一些可能应用高考加分政策的学部和学科：
+1. 公工学部 (Gonggongxuebu) - 工程学部 (Gongchengxuebu)
+   - 机器人自动化工程学 (Robot Automation Engineering)
+   - 汽车工程学 (Automobile Engineering)
+2. ICT融合工学部 (ICT Ronghe Gongxuebu)
+   - 计算机科学与技术 (Computer Science and Technology)
+   - 软件工程 (Software Engineering)
+   - 人工智能学 (Artificial Intelligence)
+   - 电气工程 (Electrical Engineering)
+   - 电子工程 (Electronic Engineering)
+3. 医疗保健生活学部 (Yiliao Baojian Shenghuo Xuebu) 
+   - 物理治疗学 (Physical Therapy)
+4. 环境工学部 (Huanjing Gongxuebu)
+   - 环境工程 (Environmental Engineering)
+   - 化学工程与工艺 (Chemical Engineering and Technology)
+5. 生命科学与生物技术学部 (Shengming Kexue Yu Shengwujishu Xuebu) 
+   - 生物医学工程 (Biomedical Engineering)
+6. 食品工学部 (Shifang Gongxuebu)
+   - 食品工程 (Food Engineering)
+7. 信息与通信工程学部 (Xinxi Yu Tongxin Gongcheng Xuebu)
+   - 信息安全 (Information Security)
+8. 材料科学与工程学部 (Cailiao Kexue Yu Gongcheng Xuebu) 
+   - 新材料 (New Materials)
+9. 建筑学部 (Jianzhu Xuebu)
+   - 建筑学 (Architecture)
+10. 机械工程学部 (Jiexie Gongcheng Xuebu)
+    - 机械工程 (Mechanical Engineering)
+请注意，这里列出的只是可能应用加分政策的部分学科，并不代表所有学科都适用。具体哪些学科可以加分以及加分标准可能会有所不同，请参考东义大学官方发布的最新招生简章或咨询学校相关部门以获取准确信息。</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>0.0001843710236104231</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 가군에서는 수능 성적이 다음과 같이 반영됩니다:
+- **반영 영역**: 국어(화법과작문 or 언어와매체), 수학(확률과통계 or 미적분 or 기하), 영어, 탐구(사회탐구 or 과학탐구 or 직업탐구 중 2개 과목)
+- **반영 비율**: 각 영역별로 25%
+따라서, 수능 성적은 다음과 같이 계산됩니다:
+- 국어 표준점수 (25%)
+- 수학 표준점수 (25%)
+- 영어 등급 점수 (25%)
+- 탐구 표준점수 (25%)
+이러한 점수들을 합산하여 최종 성적을 산출합니다.</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>0.0756807514034465</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에 대한 실기고사일정으로, 날짜는 **2024. 01. 16.(화)**입니다.
+참고로, 다른 실기고사 일정은 다음과 같습니다:
+- 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과: **2024. 01. 17.(수)**
+이 정보는 제공된 문단에서 직접 추출한 내용입니다.</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>0.01966328968654078</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 동의대학교 2024학년도 나군 수능(일반학생전형)에서 특정 모집단위가 명시적으로 제외되는 내용은 확인되지 않았습니다. 
+하지만, 패션디자인학과는 다른 조건 하에 수능성적 반영방법이 다르게 적용되므로, 이 부분을 유의해야 합니다.
+패션디자인학과는 다음과 같은 특수한 조건이 있습니다:
+- 수능 반영영역은 국어(화법과작문 or 언어와매체) / 수학 (미적분 or 기하) / 영어 / 탐구(사회탐구 or 과학탐구 중 영역 관계없이 2개 과목)
+- 반영영역별 반영비율은 각 25%
+이외의 모집단위들은 일반적인 수능성적 반영방법(국어, 수학, 영어, 탐구 중 2개 영역)을 따릅니다.
+따라서 명확한 답변으로는 "패션디자인학과가 나군 수능(일반학생전형)에서 다른 조건으로 처리되므로 사실상 제외되는 모집단위"라고 할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>0.005957576062341163</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교의 다군 전형에 대한 정보는 제공된 자료에는 명시되어 있지 않습니다. 하지만 일반적으로 대학별로 다군 전형에서는 수능 최저기준을 설정하여 해당 기준을 충족해야 하는 경우가 많습니다.
+수능 최저기준은 학생들의 수능 성적에 대한 기본적인 요구사항으로, 특정 단과대학 또는 모집단위에서 지원할 수 있도록 정해진 점수를 의미합니다. 이는 대학의 교육 목표와 채용 기준을 고려하여 설정되며, 각 대학마다 다르게 적용될 수 있습니다.
+따라서 동국대학교의 다군 전형에서도 수능 최저기준이 적용되었을 가능성이 높지만, 정확한 정보는 동국대학교 입학처 웹사이트나 공식 안내 자료를 통해 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>0.0007308379618980057</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 레저스포츠학과와 태권도학과가 학부에서 학과로 분리되었습니다. 이는 전형 요소 반영 비율에서도 확인할 수 있는데, 레저스포츠학과와 태권도학과에 대한 실기고사 평가 항목이 포함되어 있습니다. 이러한 변경사항은 해당 학과의 입시 과정에서 실기를 중점적으로 평가하게 되는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>0.06066430721808919</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 원서 접수 마감일은 11월 30일입니다.</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>0.5196199376317678</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요한 전형 요소 변화는 다음과 같습니다:
+1. **나군 학생부종합(평생학습자전형ㅣ성인학습자(정원내·외)전형ㅣ재직자전형)**:
+   - 서류평가 영역 및 배점이 변경되었습니다.
+     - 공동체역량: 1등급 140점 → 1등급 120점
+     - 학업역량: 1등급 280점 → 1등급 240점
+     - 전공적합성: 1등급 280점 → 1등급 240점
+   이 변경은 평가 기준과 점수 배점을 조정하여 더 공정하고 세밀한 평가를 목표로 하고 있습니다.
+이러한 변화는 전반적인 평가 체계를 개선하기 위한 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>0.1286396663643974</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서는 실기가 차지하는 비중은 다음과 같습니다:
+- 레저스포츠학과, 태권도학과는 실기가 없습니다.
+- 기타 모집단위 (레저스포츠학과와 태권도학과 제외)는 실기가 70%입니다.
+따라서, 가군 실기/실적 전형에서 실기 비중은 레저스포츠학과와 태권도학과에서는 없습니다. 그 외의 모집단위에서는 70%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>0.01712484916172448</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 세부 전공을 포함하고 있습니다:
+- 스타트업 창업 투자학
+- 뷰티 비즈니스학 
+- 라이프 생활 문화학
+이러한 세부 전공들은 미래 산업 트렌드와 맞물려, 창업 및 투자, 미용 및 뷰티 산업, 그리고 일상생활과 관련된 다양한 분야를 포괄하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>0.325779133757869</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사를 진행하는 학과는 다음과 같습니다:
+1. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+   - 실기종목: 기초디자인, 사고의 전환
+   - 준비물: 볼펜, 연필, 색연필, 수채물감 등
+2. 체육학과 
+   - 실기종목: 제자리 멀리뛰기, 메디신볼 던지기, Z-런
+이러한 학과들은 해당 학과에 지원하는 지원자가 실기고사를 치러야 합니다.</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>0.07687730488789592</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형을 지원할 수 있는 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+4. 체육학과 - 교직
+5. 경기지도학과
+이러한 학과들은 전형 유형이 실기/실적 위주이며, 해당 학과를 지원하려면 실기 능력이나 관련 경험이 필요합니다.
+추가 정보:
+- 각 학과별 모집 인원은 다릅니다 (예: 레저스포츠학과는 6명 등).
+- 전형 요소 반영 비율은 실기가 70%이고 수능이 30%입니다.
+- 지원 시 관련 실기 경력이나 자격증 등을 첨부해야 할 수도 있으니 확인이 필요합니다.
+자세한 내용은 동의대학교 입학처 웹사이트를 참조하시거나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>0.05997584899566877</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 다음과 같은 전공을 제공합니다:
+1. 스타트업창업투자학
+2. 뷰티비즈니스학
+3. 라이프생활문화학
+이러한 세 가지 전공은 라이프융합학부의 핵심 분야를 반영하며, 각각 다음과 같은 특성을 가지고 있습니다:
+- 스타트업창업투자학: 창업과 투자를 주제로 한 경영 관련 전공
+- 뷰티비즈니스학: 뷰티 산업의 기획, 마케팅, 운영 등에 대한 지식을 제공하는 전공
+- 라이프생활문화학: 개인 및 사회의 생활 문화와 관련된 이론과 실무를 학습할 수 있는 전공
+이러한 신설 전공들은 미래 산업 트렌드와 맞물려, 다양한 분야에서 요구되는 역량을 갖춘 인재 양성을 목표로 하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>0.03552796389135475</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>你是韩国学生吗？根据提供的信息，如果你是特殊教育高中（特수목적고등학교）的学生，并且符合以下条件之一，则可以申请东义大学的一般学生入学考试：
+1. 科学高中 (과학고)
+2. 国际高中 (국제고)
+3. 外语高中 (외국어고)
+4. 艺术高中 (예술고)
+5. 体育高中 (체육고)
+6. 技工高中 (마이스터고)
+7. 特殊教育高中 (특수목적고)
+8. 职业高中（职业教育）(특성화고의 특성(직업))
+9. 社会教育高中 (특성화고의 특성(대안))
+10. 天才学校 (영재학교)
+11. 其他承认的学历 (기타의 학력인정고)
+12. 广播通信高中 (방송통신고)
+13. 各种学校 (각종학교)
+14. 高等教育考试合格者 (검정고시)
+15. 海外高中毕业生 (외국고)
+所以，如果你是特殊教育高中（特普目）的学生，并且符合上述条件之一，则可以申请东义大学的一般学生入学考试。建议你查看具体的招生简章或直接访问东义大学的官方网站以获取最准确的信息。
+[参考链接：https://ipsi.deu.ac.kr/main.do]</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>0.0405183602116793</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별 정원 내 모집 인원을 비교해야 합니다. 제공된 정보를 바탕으로, 다음과 같은 결론을 도출할 수 있습니다:
+1. **공과대학**:
+   - 기계공학과: 103명
+   - 로봇자동화공학과: 42명
+   - 자동차공학과: 37명
+   - 조선해양공학과: 36명
+   - 신소재공학과: 52명
+   - 고분자나노공학과: 32명
+   - 토목공학과: 4 (이름만 언급, 정원은 명시되지 않음)
+   - 바이오의약공학과: 4 (이름만 언급, 정원은 명시되지 않음)
+2. **인문사회과학대학**:
+   - 중어중국학과: 4명
+   - 일본학과: 3명
+   - 심리학과: 3명
+   - 아동학과: 3명
+3. **상경대학**:
+   - 금융경영학과: 5명
+   - 재무부동산학과: 3명
+   - 무역학과: 6명
+   - 유통물류학과: 4명
+   - 경영학과: 6명
+   - 회계학과: 3명
+   - 국제관광경영학과: 4명
+4. **의료·보건·생활대학**:
+   - 임상병리학과: 0명 (정원외)
+   - 치위생학과: 0명 (정원외)
+   - 방사선학과: 0명 (정원외)
+   - 의료경영학과: 1명
+   - 식품영양학과: 0명 (정원외)
+5. **ICT융합공과대학**:
+   - 컴퓨터공학과: 3명
+   - 인공지능학과: 4명
+   - 디지털콘텐츠학과: 1명
+   - 게임공학과: 3명
+   - 영화학과: 1명
+6. **예술디자인체육대학**:
+   - 패션디자인학과: 0 (정원외)
+7. **한의과대학**:
+   - 한의예과 수학(미적분/기하): 50명
+   - 한의예과 수학(확률과 통계): 50명
+8. **레저스포츠학과, 태권도학과**: 각각 7명씩 모집
+이 중에서 가장 많은 정원을 차지하는 학과는 **공과대학의 기계공학과**로 103명을 모집하고 있습니다. 이는 나군 전형에서 가장 많은 정원을 확보한 학과입니다.</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>2.154195095457211e-05</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>네, 특수목적고등학교 학생도 동의대학교의 학생부교과 농어촌학생전형에 지원이 가능합니다. 
+특히, "나군 학생부교과(농어촌학생전형) - 정원외 지원자격" 항목에서 다음과 같이 명시되어 있습니다:
+- 유형은 6년 과정일 경우, 농어촌(읍·면)지역에 소재하는 중·고등학교에서 전 교육과정을 이수하고, 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면)지역에 거주한 자입니다.
+- 유형은 12년 과정일 경우, 부모의 거주지와 상관없이 초·중·고등학교 전 교육과정을 농어촌(읍·면)지역 소재 학교에서 이수하고 거주한 자입니다.
+따라서 특수목적고등학교라도 해당 조건을 충족하면 지원이 가능합니다. 다만, 본인과 부모의 거주지를 확인하여 농어촌 지역에 거주하였는지 여부를 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>0.08222585956052383</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 450.71입니다.
+최종합격자의 경우 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 348.67이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 459.02입니다.
+따라서, 2024학년도 소프트웨어공학부 합격자의 평균 성적을 종합하면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 348.67
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 459.02</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>0.03994453837912312</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초합격자의 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 330.11입니다.
+추가적으로, 영어 등급의 평균은 3.30이며, 수능 4개 영역 등급의 평균은 4.12입니다.</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>0.2488772265684095</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교의 정시모집 합격자 발표 일정은 공식 입학처 웹사이트나 입학사정관이 제공하는 정보를 통해 확인할 수 있습니다. 일반적으로 많은 대학교들은 정시모집 합격자를 12월 중순부터 순차적으로 발표합니다. 하지만, 동의대학교의 경우 정확한 날짜는 아직 공지되지 않았습니다.
+따라서, 가장 신뢰할 수 있는 방법은 다음과 같습니다:
+1. 동의대학교 입학처 웹사이트를 확인하세요.
+2. SNS나 대학교 소식지를 통해 최신 정보를 확인하세요.
+3. 입학사정관 사무실에 직접 문의하거나 전화로 연락을 취해보세요.
+정시모집 합격자 발표는 일반적으로 12월 중순부터 시작되므로, 이 기간 동안 주기적으로 대학교 웹사이트를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>0.1589407944748919</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2024년 1월 16일(화)에 실기고사 레저스포츠학과와 태권도학과의 면접고사를 보러 가야 합니다. 이 날짜는 대기실 및 입실 시간 안내를 위해 2024년 1월 12일(금) 14:00 이후에 입학안내 홈페이지에서 확인할 수 있습니다.
+관련 정보:
+- 일정: 2024. 01. 16.(화)
+- 비고: 대기실 및 입실시간 안내는 2024. 01. 12.(금) 14:00 이후에 입학안내 홈페이지에서 조회 가능</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>0.1016358056713922</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 명확한 한의예과 최저학력기준 정보는 제공되지 않았습니다. 하지만 일반적으로 한의예과의 지원 자격은 다음과 같은 특징을 가질 수 있습니다:
+1. 수능 응시 요건:
+   - 수학(미적분 또는 기하) 과목 응시 필요
+   - 특정 수학 과목에 대한 성적이 요구될 수 있음
+2. 학력 요건:
+   - 고등학교 졸업 자격이 필요합니다.
+3. 추가적인 요건:
+   - 일부 대학에서는 특별한 지원 자격 조건을 두고 있을 수 있습니다.
+   - 예를 들어, 특정 과목의 성적 기준 등을 요구할 수도 있습니다.
+4. 경쟁률과 합격 점수:
+   - 각 대학마다 다르지만, 일반적으로 높은 경쟁률을 보입니다.
+   - 최종 합격자들의 평균 수능 점수가 공개되곤 합니다.
+따라서 정확한 최저학력기준을 확인하려면 해당 대학의 공식 입시 안내를 참조하는 것이 가장 좋습니다. 각 대학은 자세한 지원 자격과 합격 기준을 명시하고 있으므로, 공식 웹사이트나 입학처와 직접 문의하는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>1.706271775917422e-09</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2024학년도에 대한 정보를 바탕으로, 다음과 같은 전형별로 수능 최저학력 기준이 없습니다:
+1. 가군 수능(일반학생전형) - 전 모집단위 (레저스포츠학과, 태권도학과 제외)
+2. 나군 수능(일반학생전형) - 한의예과(수학&lt;확률과통계&gt;)를 제외한 전 모집단위
+3. 다군 수능(일반학생전형)
+이들 전형 모두 수능 최저기준 없음으로 표시되어 있습니다.
+그러나 다른 학생부교과, 실기/실적 위주 등 다른 전형에서는 수능 최저학력 기준이 있을 수 있으므로, 전체적인 입학요건을 확인하시려면 대학의 공식 입학규정이나 홈페이지를 참조하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>1.881619245363404e-06</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>충원 합격자 발표 일정은 다음과 같습니다:
+- **1차 충원 합격자 발표**: 2024. 02. 14.(수) 09:00
+- **1차 충원 합격자 등록**: 2024. 02. 14.(수) 09:00~16:00
+- **2차 충원 합격자 발표**: 2024. 02. 15.(목) 09:00
+- **2차 충원 합격자 등록**: 2024. 02. 15.(목) 09:00~16:00
+- **3차 및 이후 충원 합격자 발표**: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+이 일정에 따라 각 차례별로 충원 합격자를 발표하고 등록을 진행합니다.</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>0.2940861218244467</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교 정시모집의 추가합격자는 2023년 12월 27일(목)에 발표됩니다.</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>0.1056787085376157</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2024년 경기대학교의 추가모집 여부는 공식적으로 발표되지 않았습니다. 일반적으로 대학들은 추가모집을 통해 정원 외 학생들을 선발할 수 있지만, 이에 대한 정보는 각 대학의 입학처 웹사이트나 공지사항을 확인해야 정확합니다. 경기대학교의 경우也不例外，建议您访问该校的官方招生网站或联系招生办公室以获取最准确的信息。通常这些网站会提供最新的招生政策、计划和通知等详细信息。</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>0.1937178824616722</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학교에서 성인 학습자를 위한 특별한 전형으로, 고등학교 졸업 자격을 갖춘 성인들이 입학할 수 있는 기회를 제공합니다. 주요 내용은 다음과 같습니다:
+1. 모집단위 및 모집인원:
+   - 미래융합대학 인문사회 계열 라이프융합학부: 11명
+   - 미래융합대학 인문사회 계열 부동산자산경영학부: 7명, 17명 (정원내외)
+   - 기타 다양한 학과 및 전공에서 모집
+2. 지원자격:
+   - 고등학교 졸업 자격을 갖춘 성인
+   - 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자 (성인학습자(정원내)전형)
+3. 제출서류:
+   - 고교 학교생활기록부 (온라인 제공 동의자는 제출 필요 없음)
+   - 검정고시 합격증서 및 성적증명서 (검정고시 출신자)
+   - 외국고교 졸업 증명서와 성적증명서 (외국고교 졸업자)
+4. 전형요소 반영비율:
+   - 서류: 70%
+   - 면접: 30%
+5. 동점자 처리기준:
+   - 면접고사 성적 상위자
+   - 서류평가 공동체역량 영역 성적 상위자
+   - 서류평가 전공적합성 영역 성적 상위자
+   - 교과 성적 상위자
+6. 평가영역 및 배점:
+   - 공동체역량: 1등급 140점, 2등급 129.5점 등
+   - 학업역량: 1등급 280점, 2등급 259점 등
+   - 전공적합성: 1등급 280점, 2등급 259점 등
+이러한 정보를 바탕으로 평생학습자전형에 지원하려는 성인들이 준비할 수 있는 내용을 확인하실 수 있습니다. 자세한 사항은 대학교 입학처 웹사이트(https://ipsi.deu.ac.kr/main.do)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>0.441411077133963</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 산업체 적용 범위:
+   - 국가·지방자치단체 및 공공단체 소속 직원 (예외 없음)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체 (창업·자영업자 포함)
+     ※ 단, 4대 보험 가입 대상 사업체가 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정할 수 있음
+2. 재직기간:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원 자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+3. 지원 자격 증빙서류:
+   - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+   - 검정고시 합격증서 사본 또는 합격증명서 1부
+   - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+   - 외국고교 졸업(예정)자인 경우:
+     * 공증받은 외국고교 졸업(예정)증명서 1부
+     * 공증받은 외국고교 성적증명서 1부
+     * 학교생활기록부 대체 서류 (제출 여부 선택 가능)
+이러한 자격 요건을 충족해야 평생학습자전형에 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>1.004664128291334e-05</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보만으로는 정확한 실기고사 장소를 알 수 없습니다. 하지만 일반적인 절차에 따르면:
+1. 체육학과의 경우, 실기고사는 대체로 해당 대학이나 학부에서 이루어집니다.
+2. 경기지도학과의 경우, 축구나 배드민턴 등 스포츠 관련 실기는 대학 내 스포츠 시설에서 진행될 가능성이 높습니다.
+3. 조기취업형 계약학과의 경우, 해당 학과와 협력하는 기업체에서 실기고사가 이루어질 수 있습니다.
+4. 평생학습자전형이나 성인학습자 전형 등은 대학 내에서 실기평가가 진행될 것으로 예상됩니다.
+정확한 장소는 각 모집단위의 공지사항이나 입학처 웹사이트를 통해 확인해야 합니다. 또한, 실제 시험 일정과 장소는 당일 안내에 따르게 됩니다. 따라서 최신 정보와 안내를 참고하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>0.001831378344802681</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2024학년도에 체육학과의 실기고사는 다음과 같이 진행됩니다:
+- **일정**: 2024. 01. 17.(수)
+- **종목**:
+  - 제자리 멀리뛰기 (350점, 35%)
+  - 메디신볼 던지기 (243점, 23%)
+  - Z-런 (230점, 23%)
+실기고사는 이 날짜에 체육학과에서 진행됩니다. 준비물과 주제 등은 미리 제공되는 정보를 참고하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>0.03031447804057628</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 일반적으로 대학들은 수시 충원 합격자를 발표한 후, 합격자들에게 개별적으로 연락하여 등록 절차를 안내하는 경우가 많습니다. 하지만 모든 대학이 동일하게 전화로 연락하지는 않을 수 있습니다.
+입학처의 공지사항이나 학교 홈페이지에서 제공하는 정보를 확인하시면 정확한 방법을 알 수 있습니다. 일반적인 과정은 다음과 같습니다:
+1. 합격자 발표: 학교 홈페이지 또는 입학원서 시스템에서 개별적으로 조회 가능합니다.
+2. 고지서 교부: 홈페이지에서 출력하거나 입학관리팀에서 받을 수 있습니다.
+3. 등록장소 안내: 학교 지정은행으로 등록금 납부를 안내합니다.
+일부 대학에서는 합격자에게 직접 전화하여 등록 절차를 안내하기도 합니다. 따라서 최종적으로는 학교 입학처의 공식 안내를 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>0.1215176287871428</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2024학년도의 정보를 바탕으로, 2023학년도 경찰행정학과 수시모집 결과에 대한 직접적인 데이터는 제공되지 않았습니다. 하지만, 2024학년도 모집에 대한 정보를 통해 유추할 수 있습니다.
+2024학년도 경찰행정학과의 모집 인원은 7명이며, 지원 인원이 29명으로 경쟁률은 약 4.14입니다. 충원 합격자는 7명으로 모든 모집인원을 채웠습니다.
+또한, 수능 최저 기준 없음이라는 점에서, 경찰행정학과는 수능 성적에 크게 의존하지 않는 것으로 보입니다. 이는 실기나 면접 등 다른 평가 요소를 중요하게 고려하고 있을 가능성이 있습니다.
+추가적인 자세한 정보는 해당 대학의 입학처 웹사이트 또는 공지사항을 확인하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>0.06000151550384184</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2024학년도 경희대학교의 일부 전형에서는 수능을 응시하지 않은 학생도 지원이 가능합니다. 특히, 나군 실기/실적(일반학생전형)에서 다음과 같은 모집단위는 수능 없이 지원할 수 있습니다:
+1. 디자인조형학과 (시각디자인 / 산업디자인 / 공예디자인)
+2. 체육학과
+이는 해당 전형의 특성상 실기 성적이 중요하기 때문에, 수능 점수 없이도 지원 가능합니다.
+그 외에 나군 학생부종합(평생학습자전형/성인학습자전형/재직자전형) 등에서도 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로 지원 자격이 주어집니다. 이 경우에도 수능 점수는 필요하지 않습니다.
+따라서, 특정 전형과 모집단위에서 수능 응시 없이도 지원할 수 있는 기회가 있습니다. 하지만 일반적으로 대부분의 전형에서는 수능 성적이 필수적이나, 위와 같이 일부 특별한 경우를 제외하면 수능 점수가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>2.318963679215388e-05</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>一般来说，高中毕业十年后申请大学的情况比较少见。大多数大学的招生政策针对的是近一两年内刚从高中毕业的学生。不过，具体情况可能因学校和专业而异。
+根据您提供的信息，这里有一些可能适用的途径：
+1. **成人学士学位（平生学習者）**：
+   - 这种类型的入学通常面向已经工作了一段时间的人。
+   - 申请条件包括一定的工作经验、高中学历或同等学历等。
+   - 具体要求和流程需要查看相关大学的具体招生信息。
+2. **特殊专业或项目**：
+   - 某些学校可能会有针对特定群体（如在职人员）的特殊入学途径，例如“就业合同学士学位”等。
+   - 这类项目的申请条件通常会包括一定的工作经验、高中学历或同等学历等。
+建议您访问以下网站获取更详细的信息：[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)
+如果您不确定具体要求，可以联系目标大学的招生办公室进行咨询。他们能够提供最准确和最新的信息。</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>2.51299530506926e-79</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과, 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 정시모집의 주요 단계를 포함하며, 각 단계별로 필요한 서류 제출과 납부일정을 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>0.72994405037773</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**:
+   - 날짜: 2024. 01. 02.(화)
+   - 비고: 입학안내 홈페이지 공고
+2. **원서접수(인터넷)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 06.(토) 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. **서류 제출 (제출서류가 있는 경우)**:
+   - 시작일: 2024. 01. 03.(수)
+   - 마감일: 2024. 01. 12.(금) 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조) 
+          제출방법 : 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. **&lt;가&gt;군 실기고사 레저스포츠학과, 태권도학과**:
+   - 날짜: 2024. 01. 16.(화)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. **&lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인), 체육학과**:
+   - 날짜: 2024. 01. 17.(수)
+   - 비고: 대기실 및 입실시간 안내 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024. 02. 02.(금) 14:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록: 2024. 02. 07.(수) ~ 02. 13.(화) (은행마감시간 내)
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 발표: 2024. 02. 14.(수) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 1차 등록: 2024. 02. 14.(수) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 발표: 2024. 02. 15.(목) 09:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 2차 등록: 2024. 02. 15.(목) 09:00 ~ 16:00
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 등록: 개별 전화 통보 시 안내
+     - 비고: * 발표 : 홈페이지에서 개별 조회 
+            * 고지서 교부 : 홈페이지에서 출력 또는 입학관리팀에서 수령 
+            * 등록장소 : 학교 지정은행 (등록금 고지서에 기재)
+이 일정들은 동의대학교 정시모집의 주요 단계를 포함하며, 각 단계별로 필요한 서류 제출과 실기고사 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>0.3738049943263142</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서 수능 미응시자도 지원이 가능한 전형은 다음과 같습니다:
+1. **나군 실기/실적(경기실적우수자전형)**:
+   - 이 전형에서는 수능 미응시자도 지원 가능합니다.
+2. **나군 학생부종합(조기취업형계약학과전형) - 정원외**:
+   - 이 전형에서도 수능 미응시자도 지원이 가능합니다.
+위와 같이, 경기실적우수자전형과 조기취업형계약학과전형에서 수능 미응시자도 지원이 가능한 전형들이 있습니다.</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>0.1434308763147416</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2024학년도 데이터를 바탕으로, 전자공학과의 충원 합격자는 36명이었습니다. 이는 최초합격자(60명) 중 일부로 충원 합격자가 이루어진 차수입니다.
+2024학년도 전자공학과 모집인원 및 지원 인원 데이터를 보면:
+- 모집인원: 69명
+- 지원인원: 105명 
+- 경쟁률: 1.52
+최초합격자는 60명이었고, 충원 합격자 중에서 전자공학과의 경우는 36명이었습니다.
+따라서, 전년도에 전자공학과의 충원 합격은 3차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.1649461243248908</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보에서 동의대학교의 정확한 입학처 전화번호를 확인할 수 없습니다. 대학 홈페이지나 공식 문건을 통해 최신 번호를 확인하시기 바랍니다. 일반적으로 대학의 공식 웹사이트에는 연락처가 명시되어 있으므로, 해당 사이트를 방문하여 확인해보시는 것이 가장 정확한 방법입니다.</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.1552201364140224</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대한 개별 전화 통보 시, 전화 통화가 되지 않는 경우 일반적으로 다음과 같은 절차로 처리됩니다:
+1. **재전화 시도**: 초기에는 일정 시간 동안 추가로 전화를 시도합니다.
+2. **메시지 남기기**: 전화가 되지 않으면 메시지를 남깁니다. 학생은 메시지를 확인하고 연락처를 제공하면 됩니다.
+3. **이메일 통보**: 메시지에도 불구하고 연락이 되지 않는 경우, 이메일로도 합격 정보를 통보합니다.
+4. **입학관리팀 방문**: 학생이 직접 입학관리팀을 방문하여 확인할 수 있도록 안내합니다.
+5. **추가 연락 방법**: 학교에서는 추가적인 연락 방법(예: 문자 메시지 등)을 통해 합격 정보를 전달하기도 합니다.
+具体的来说，如果电话联系不上，学校通常会采取以下步骤处理：
+1. **再次尝试拨打**：在最初的一段时间内，学校会多次尝试打电话。
+2. **留言**：如果无法接通，则会在电话上留信息。学生需要检查并提供联系方式。
+3. **发送电子邮件**：如果通过留言也无法联系到学生，学校还会通过电子邮件通知录取结果。
+4. **亲自访问**：鼓励学生亲自前往招生办公室确认信息。
+5. **其他联系方式**：学校还可能会使用短信等方式进行额外的联系。
+这样可以确保即使初次电话无法接通，也能通过多种方式最终与学生取得联系。</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.03132983695868729</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정 모두 동일하게 다음과 같은 서류가 필요합니다:
+1. 고교 학교생활기록부 1부 (온라인 제공 동의자가 있는 경우 제출하지 않아도 됩니다)
+2. 농어촌 거주 증빙서류:
+   - 농어촌 지역에 소재한 중·고등학교에서 전 교육과정을 이수한 증명
+   - 본인 및 부모(부모가 사망하거나 이혼한 경우에는 제외)의 농어촌 거주 증빙 (거주지와 학교가 동일하지 않아도 됨)
+3. 기타 필요한 서류:
+   - 고등학교 졸업(예정)증명서
+   - 주민등록簿 (户籍证明)
+   - 성적 증명서 등 추가로 요구될 수 있는 서류
+12년 과정의 경우, 농어촌 거주 증빙은 지원자 본인만 초·중·고등학교 전 교육과정을 농어촌 지역 소재 학교에서 이수하고 거주한 자여야 합니다.
+이러한 서류들을 정확하게 준비하여 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.2359813474866927</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원을 위해서는 다음과 같은 서류를 제출해야 합니다:
+1. 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자가 있는 경우 제출하지 않아도 됩니다.)
+2. 경기실적증명서 1부 (대한체육회 인터넷경기실적발급시스템에서 발급)
+이 외에 일반적으로 다음과 같은 기본 서류가 필요할 수 있습니다:
+- 신분 증명서 (주민등록등본 등)
+- 학력 증명서
+- 기타 요구되는 추가 서류 (학교나 대학이 요청하는 경우)
+하지만 주요하게는 위의 두 가지 서류가 필수적입니다. 특히 경기실적증명서는 경기실적우수자전형에 지원하기 위한 핵심 서류로, 해당 종목과 등급에 따른 점수를 받을 수 있도록 발급 받아야 합니다.
+주의: 실제 제출해야 하는 모든 서류는 동의대학교 입학처 웹사이트나 관련 안내서를 확인하는 것이 가장 정확합니다. 각 대학은 약간 다른 요구 사항을 가지고 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.2630449729239299</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2024학년도에 따르면, 정시모집의 저소득 기회균등 전형은 없어졌습니다. 이전에는 해당 전형이 있었지만, 2024학년도부터는 이를 통해 선발하지 않는 것으로 변경되었습니다.</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.2912092360856264</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>一般来说，如果两门社会科目（包括历史、地理和道德等）的平均成绩是2.5等级，通常会进行四舍五入处理。具体规则可能因学校而异，但常见的做法如下：
+1. **四舍五入**：大多数情况下，2.5会被四舍五入到3.0等级。
+2. **向下取整**：有些学校可能会直接将2.5向下取整为2.0等级。
+建议您查看具体的招生简章或咨询学校的招生办公室以确认他们的具体处理规则。如果招生简章中没有明确说明，通常的做法是四舍五入到最接近的等级。</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.0238030455281285</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2024학년도 정시모집의 충원 합격자는 총 3차로 발표됩니다.
+1. **1차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 14.(수) 09:00
+   - 내용: 합격자 발표 및 등록금 납부
+2. **2차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 09:00~16:00
+   - 내용: 합격자 발표 및 등록금 납부
+3. **3차 충원 합격자 발표 및 등록**:
+   - 일정: 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지
+   - 내용: 합격자 발표 및 등록금 납부
+각 차례별로 합격자들이 홈페이지에서 개별적으로 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다. 등록장소는 학교 지정은행으로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.2599747529262429</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **目标专业和大学的录取标准**：您需要知道eBiz學科在该大学2024年招生的具体要求。这包括平均分、最低分等。
+2. **您的具体成绩情况**：您提到的4.6是指数学或英语的成绩吗？如果是其他科目，也需要了解这些科目的权重和影响。
+3. **竞争程度**：不同专业的录取难度可能有所不同。有些专业可能会有较高的竞争率，而另一些则相对宽松。
+根据提供的信息，我们可以做一些假设性的分析：
+- eBiz學科在2024年的招生中，如果您的总成绩为4.6（假设是数学或英语），这通常会是一个比较低的分数。
+- 从您提供的数据来看，eBiz學科的平均分和标准差分别为317.87和7.35。这意味着大多数被录取的学生的成绩都高于这个水平。
+因此，如果您的总成绩为4.6（假设是数学或英语），并且没有其他高分科目来弥补这一不足，那么通过正規的正取途径可能不太容易获得录取。但是，这并不完全排除所有可能性：
+1. **特殊政策**：有些大学可能会有特殊的招生政策或者名额分配。
+2. **补录机会**：如果初次录取后还有剩余名额，有可能会进行补录。
+建议您：
+- 详细了解eBiz學科的具体录取标准和要求。
+- 考虑是否可以通过其他途径（如提前批、特殊招生等）申请。
+- 咨询学校招生办公室获取更准确的信息。</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.05292318171679286</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 e비즈니스학과의 수능(일반학생전형) 최초합격자들의 통계를 살펴보면, 다음과 같은 정보가 있습니다:
+- 모집 인원: 9명
+- 지원 인원: 95명
+- 경쟁률: 10.56
+- 충원 합격 (후보순위): 33명
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 326.89이며, 표준 편차는 6.92입니다.
+영어 등급의 평균은 2.88이며, 표준 편차는 0.56입니다.
+수능 4개 영역 등급의 평균은 3.88이며, 표준 편차는 0.14입니다.
+수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 450.78이며, 표준 편차는 5.90입니다.
+정시 등급이 5.3인 경우, 수능 4개 영역 등급의 평균을 보면 3.88보다 높습니다. 이는 상대적으로 좋은 성적을 의미합니다. 그러나 e비즈니스학과의 경쟁률은 매우 높으며, 지원 인원이 많아서 최초 합격 가능성은 낮을 수 있습니다.
+평균적인 점수와 등급을 고려할 때, 정시 등급 5.3은 상대적으로 좋은 성적입니다. 그러나 e비즈니스학과의 경쟁률이 매우 높기 때문에 최초 합격 가능성은 낮다고 볼 수 있습니다.
+따라서 정시 등급 5.3으로 e비즈니스학과에 최초 합격하기 위해서는 다음과 같은 조건을 충족해야 합니다:
+1. 국어, 수학, 탐구 과목의 표준 변환 점수가 평균 이상이어야 합니다.
+2. 영어 등급도 상대적으로 높아야 합니다.
+따라서 최초 합격 가능성은 낮지만, 충분히 도전해볼 만한 가치가 있습니다.</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.05769204282546089</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **你的成绩**：你提供的信息中没有具体的成绩数据。通常，学校会根据学生的综合成绩（包括高考成绩、学生综合素质评价等）来决定是否预录取。
+2. **竞争情况**：不同年份和专业的竞争程度可能会有所不同。你需要了解该专业在你所在年级的平均分和其他申请者的分数分布情况。
+3. **其他因素**：除了学术成绩，学校还会考虑学生的综合素质评价（如学生社团活动、社会实践经历等）以及面试表现等因素。
+4. **录取标准**：根据提供的信息，该专业的录取标准包括：
+   - 国语 + 数学 + 研究(2个) (含加分) 标准转换分数总和的平均值为 396.29
+   - 英语等级的平均分为 1.00
+   - 数学四科等级的平均分为 1.20
+   - 数学四科（含加分）标准转换分数总和的平均值为 535.29
+假设你提供的成绩大致符合这些平均水平，那么你的成绩可能处于中等偏上的水平。但是，具体是否能预录取还需要结合其他申请者的具体情况来判断。
+建议：
+1. **详细了解**：查看该专业的详细招生简章或咨询学校招生办公室。
+2. **参考往年数据**：了解近几年的录取分数线和平均分情况。
+3. **准备充分**：如果可能的话，参加模拟面试和其他相关活动以提高综合素质评价部分的表现。
+综上所述，仅凭你提供的信息无法确定是否能预录取。建议进一步收集相关信息并进行综合评估。</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>1.505846269253147e-79</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>3.44이라는 성적이 동의대학교 간호학과에 충분한지 확실하지는 않습니다. 하지만 몇 가지 요소를 고려해보면:
+1. 동의대학교 간호학과의 정시 최저학력기준을 확인해야 합니다. 이 정보가 공개되어 있다면 그 기준을 먼저 확인해야 합니다.
+2. 성적 외에 간호사 자격 취득을 위한 실무경험, 인성검사 결과 등도 고려됩니다. 
+3. 경쟁률과 지원자들의 평균 성적을 파악하면 도움이 됩니다. 현재 정보로는 정확한 경쟁률은 알 수 없지만, 간호학과의 경쟁률은 높습니다.
+4. 학생부 종합전형 등 다른 전형에서도 지원해보는 것이 좋습니다.
+5. 동의대학교 외에도 다른 대학이나 학과를 고려해볼 만합니다.
+결론적으로, 3.44라는 성적만으로는 확실한 합격 여부를 판단하기 어렵습니다. 정확한 정보를 확인하고 전략을 세우는 것이 중요하겠습니다. 추가로 필요한 자세한 정보나 조언이 필요하시다면 언제든지 알려주세요.</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.1284142446034273</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 간호학과의 정시모집에 대한 정보를 바탕으로 답변 드리겠습니다.
+1. **정시 모집단위 및 지원 자격**: 
+   - 단과대학: 의료보건생활대학
+   - 모집단위: 간호학과
+2. **최근 입학사정관 전형 성적 분석**:
+   - 2024학년도 최초합격자 중 간호학과의 지원자의 평균 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합은 약 357.63입니다.
+   - 이는 2024학년도 정시 성적인 2.52와 비교해 매우 높습니다.
+3. **성적 차이 분석**:
+   - 간호학과 최초합격자의 평균 점수(357.63)는 2024학년도 정시 성적인 2.52와 약 100점 이상의 차이가 있습니다.
+   - 이는 매우 큰 격차로, 일반적으로 동일한 모집단위에서 최초합격자의 점수가 지원자 성적보다 훨씬 높은 경우, 합격 가능성은 낮습니다.
+4. **전형 요소**:
+   - 간호학과는 입학사정관 전형으로 진행되며, 서류평가와 면접 평가가 주요 요인입니다.
+   - 이 중에서도 성적이 가장 중요한 요소로 작용합니다.
+5. **결론**:
+   - 2024학년도 동의대학교 간호학과 최종 합격 가능성은 매우 낮습니다. 
+   - 정시 성적 2.52는 최초합격자들의 평균 점수와 비교해 큰 차이가 있어, 입학사정관 전형에서 합격하기 위해서는 다른 요인(예: 서류평가, 면접 등)에서도 매우 뛰어난 성적을 보여줘야 합니다.
+따라서, 정시 성적이 2.52라면 동의대학교 간호학과 최종 합격 가능성은 낮다고 판단할 수 있습니다. 다른 전형이나 대학을 고려해보는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.01435573422244522</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>3.7의 GPA는 좋은 점수이지만, 간호학과에 지원할 때 고려해야 할 요소는 다양합니다. 간호학과의 경우 일반적으로 다음과 같은 요인들이 중요하게 작용합니다:
+1. **학업 성적**: 대부분의 대학에서 학업 성적이 중요한 평가 기준입니다. 3.7은 좋은 점수이지만, 간호학과는 종종 더 높은 GPA를 요구하기도 합니다.
+2. **면접 성적**: 많은 대학에서는 면접을 실시하여 지원자의 의사소통 능력, 동기부여, 직업 적합성 등을 평가합니다.
+3. **추천서**: 교사나 전문가의 추천서는 간호학과에서 중요하게 작용할 수 있습니다.
+4. **진로 계획 및 동기**: 지원자의 진로 계획과 간호사로서의 열정이 잘 설명되어 있어야 합니다.
+5. **추가 자격증이나 활동**: 관련 자격증, 봉사활동, 연구 경험 등은 추가적인 장점으로 작용할 수 있습니다.
+6. **서류 평가 점수**: 학생부 종합 평가에서 공동체역량, 학업역량, 전공적합성 등의 영역에서 좋은 성적이 필요합니다.
+7. **면접 성적**: 면접에서도 좋은 성적을 받는 것이 중요합니다. 지원자의 의사소통 능력과 간호사로서의 적합성을 평가받습니다.
+따라서, 3.7의 GPA만으로 합격할 수 있는 것은 아니지만, 위와 같은 요인들을 잘 준비하고 제출한다면 좋은 결과를 얻을 가능성이 있습니다. 각 대학별로 요구 사항이 다르므로, 해당 대학의 정시 모집요강과 전형 방식을 꼼꼼히 확인하시고, 지원 자격을 충족하는지 점검해보세요.
+추가적으로, 학교 홈페이지나 입학처에 문의하거나, 간호학과 관련된 컨설팅 서비스를 이용하면 더 구체적인 조언을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.01555178309987858</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 398.67이며, 표준 편차는 0.54입니다.
+현재 제시된 성적인 2.58은 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합으로 보이지 않습니다. 일반적으로 고등학교 졸업 전형에서의 성적은 등급이나 석차 등으로 표현되며, 이는 표준 변환 점수로 변환되어 평균과 비교됩니다.
+2024년 동의대학교 간호학과의 정시 모집에서는 다음과 같은 기준이 적용되었습니다:
+- 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 398.67
+- 표준 편차는 0.54
+현재 제시된 성적인 2.58을 국어+수학+탐구(2개) (가산점 포함) 표준 변환 점수로 해석하면, 이는 평균보다 약간 낮습니다.
+따라서 현재의 성적만으로는 정시 전형에서 간호학과에 합격하기 어렵다고 볼 수 있습니다. 그러나 다음과 같은 요인들을 고려해야 합니다:
+1. 경쟁률: 2024년 동의대학교 간호학과의 경쟁률은 3.58입니다.
+2. 지원자들의 성적 분포: 평균보다 낮더라도, 전체 지원자의 성적이 매우 높지 않다면 합격 가능성은 있습니다.
+3. 기타 요인: 면접 성적, 서류 심사 결과 등도 중요한 역할을 합니다.
+따라서 현재의 성적만으로는 확실한 합격을 보장하기 어렵습니다. 추가적인 준비와 노력이 필요하며, 가능하다면 다른 전형(예: 특기자전형, 실기/실적 위주 전형 등)도 고려해보시는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.02422784590915703</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>为了回答您是否能被游戏学专业录取，我们需要考虑以下几个因素：
+1. **您的成绩**：包括高考各科目的标准分和等级。
+2. **申请的专业**：游戏学属于ICT融合工学院的范畴。
+3. **招生计划**：查看该专业的具体招生人数以及不同类别（如普通学生、成人学生等）的具体名额。
+根据您提供的信息，您可以参考以下步骤来判断录取的可能性：
+1. **查询招生简章和招生计划**：
+   - 查看游戏学专业在ICT融合工学院的招生计划。
+   - 了解该专业的具体招生人数以及不同类别（如普通学生、成人学生等）的具体名额。
+2. **成绩评估**：
+   - 根据您提供的高考各科目的标准分和等级，计算您的总分。
+   - 参考游戏学专业在ICT融合工学院的录取分数线或参考往年数据来判断您的成绩是否达到要求。
+3. **准备申请材料**：
+   - 确保提交所有必要的申请文件，包括学生证、成绩单等。
+   - 准备面试和实操考试（如果有的话）。
+4. **了解录取标准**：
+   - 游戏学专业的录取标准通常会考虑高考成绩、面试表现以及个人陈述等因素。请仔细阅读招生简章中的具体要求。
+5. **咨询学校**：
+   - 如果您对某些细节不确定，可以直接联系学校的招生办公室进行咨询。
+根据提供的信息，游戏学专业属于ICT融合工学院的一部分，并且有具体的招生名额和录取标准。建议您详细查看该专业的招生简章，了解最新的招生计划和具体要求，以便做出准确的判断并做好相应的准备。如果还有疑问，可以访问学校官网或直接联系招生办公室获取更多信息。
+如果您需要进一步的帮助或具体信息，请告诉我！</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>6.241177842713168e-80</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.16이라는 수능 등급은 상당히 낮은 점수입니다. 게임공학과는 공학 계열로, 비교적 높은 수능 점수가 요구되는 전형이 많습니다.
+다만 정확한 합격 확률을 예측하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. 모집인원 및 지원자 수: 게임공학과의 모집 인원과 실제 지원자의 수를 확인해야 합니다.
+2. 경쟁률: 이전 연도의 경쟁률을 참조하면 도움이 됩니다.
+3. 학생부 등其它信息：根据提供的信息，我们可以进行以下分析：
+1. 4.16的等级在韩国高考中属于较低水平。对于游戏工程学专业来说，通常需要较高的数学和科学成绩。
+2. 游戏工程学专业的录取竞争非常激烈，尤其是对于私立大学如东国大学。
+3. 根据提供的数据，即使在最低的科目组合（国语+数学+两门选修课）中，平均标准转换分数也达到了309.71。而4.16的等级对应的分数远低于这个平均水平。
+基于以上分析，对于拥有4.16等成绩的学生来说，在东国大学游戏工程学专业通过常规录取（一般学生类型）的可能性非常低。即使在特殊类型如农林地区学生类型中，也需要更高的标准转换分数。
+因此，建议该学生考虑以下几种可能性：
+- 申请其他竞争较小的专业或学校。
+- 考虑参加补习班提高成绩。
+- 了解并尝试申请一些录取门槛较低的学校或专业。
+- 如果有特长或特殊才能，可以关注特长生类型（如艺术、体育等）的招生。
+总之，4.16的成绩在当前情况下很难通过常规途径被东国大学游戏工程学专业录取。</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.04889186384826572</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要更多的信息来确定你是否有可能被经管学院的经营信息学专业在首次注册时录取。以下是一些需要考虑的因素：
+1. **学校和专业的具体要求**：不同大学和专业的录取标准可能有所不同。你需要查看目标学校的招生简章或官方网站上的详细信息。
+2. **其他申请条件**：
+   - **实考成绩（高考分数）**：你的高考总分是多少？是否达到了该专业的要求？
+   - **等级考试成绩**：如果你所在地区有等级考试，这些成绩如何？
+   - **综合素质评价**：有些学校会参考学生的综合素质评价。
+3. **招生计划和名额**：你需要了解经营信息学专业的具体招生人数以及已经录取的人数情况。如果还有剩余名额，你才有可能被录取。
+4. **其他申请材料**：
+   - 如果是综合评价或特长生等特殊类型招生，可能还需要提交额外的申请材料。
+   - 有些学校可能会参考学生的高中学业成绩、社会实践经历等。
+5. **排名和竞争情况**：了解你的分数在所有申请者中的排名以及竞争程度。如果名额较多且竞争不激烈，你被录取的可能性较大。
+假设你提供的信息是高考总分380分（折合标准分），等级考试成绩为B+、B-等，那么你需要查看目标学校的招生简章来确定具体要求。通常情况下，经营信息学专业的录取分数线会高于这个分数，但具体情况还需参考学校当年的招生计划和实际录取情况。
+建议你直接访问目标学校的官方网站或联系招生办公室获取最准确的信息。</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>3.172032008120139e-79</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要了解一些具体信息：
+1. 您申请的是哪个大学和专业？
+2. 经营信息学部（经管类）的最低录取分数线是多少？不同年份和批次可能会有所不同。
+3. 您是否有其他特殊资格或加分项？
+但是根据您提供的信息，我可以给出以下一般性建议：
+- 4.2 的成绩在大多数大学中属于较好的水平。如果该成绩是您的实际高考分数，并且没有低于学校设定的最低分数线，那么理论上是有机会被录取的。
+- 您需要查看目标学校的招生简章或官网上的具体要求，确认经营信息学部（经管类）的最低录取标准。
+- 如果您是首次注册的学生，还需要注意是否有其他额外的要求，比如是否需要参加面试或其他选拔环节。
+建议：
+1. 访问目标大学的官方网站，查找最新的招生政策和分数线。
+2. 联系学校的招生办公室获取更详细的信息。
+3. 确认是否有其他特殊资格或加分项可以提高录取几率。</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.01977313945733979</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수는 수능 영어 등급에 해당합니다. 동의대학교 경영정보학과의 경우, 가군(일반학생전형)에서 수능 반영 비율이 100%입니다.
+수능 영어 등급별 점수 변환표를 확인하면 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점
+당신의 점수인 5.33은 5등급에 해당합니다.
+가군(일반학생전형) 경영정보학과의 수능 최저 기준을 확인해보면, 정원 내 모집 인원이 24명이고, 동점자 처리기준은 다음과 같습니다:
+1. 수능 국어(표준점수), 수학(표준점수), 영어(등급에 따른 점수)영역의 합계점수 상위자
+2. 인문사회과학대학, 상경대학 모집단위 수능 국어영역 표준점수 상위자
+3. 의료‧보건‧생활대학, 공과대학 ICT융합공과대학 모집단위 수능 수학(미적분 또는 기하) 응시자
+따라서, 수능 영어 5등급인 107점을 가지고 합격 가능성은 있습니다. 그러나 경쟁률이 높아서 상대적으로 낮은 점수를 가진 지원자가 많을 가능성이 있으므로, 정확한 합격 여부는 최종 합격자 발표 시 확인해야 합니다.
+추가적으로, 다른 전형(예: 실기/실적 위주 전형)이나 개인의 특성 등을 고려하여 지원하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.03579913050870834</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 바이오응용공학부의 경우, 정시 최초등록자의 성적이 다음과 같습니다:
+- 모집인원: 15명
+- 지원인원: 238명
+- 경쟁률: 15.87 (238/15)
+- 충원 합격자 수: 139명
+성적 관련 데이터는 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 284.86
+- 영어 등급의 평균: 4.53
+성적 3.33은 대략 4등급에 해당합니다.
+따라서, 성적이 약간 낮지만, 경쟁률이 매우 높아 3.33 정도의 성적만으로 최초 등록을 확신하기는 어렵습니다. 하지만 일부 지원자가 더 낮은 점수를 가지고 합격한 사례도 있을 수 있습니다.
+결론적으로:
+1. 가능하지만, 경쟁률이 매우 높아 확실성은 낮습니다.
+2. 성적이 약간 낮지만, 다른 요인(추천서, 자기소개서 등)으로 인해 합격 가능성은 열려있습니다.
+최종 결정을 내리기 위해서는 정확한 성적과 경쟁률 등을 고려해야 하며, 지원 전에 대학 입학처나 관련 부서와 상담하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.1137790186573705</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2024학년도에 방사선학과의 모집요강을 확인해보겠습니다. 방사선학과는 주로 공학계열에 속하며, 일반학생전형에서는 수능 성적이 중요한 요소입니다.
+방사선학과의 전형요건 및 수능 반영 비율은 다음과 같습니다:
+1. **수능 반영 영역**:
+   - 국어(화법과작문 또는 언어와매체) 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) 25%
+   - 영어 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+2. **가산점**:
+   - 수학(미적분 또는 기하) 응시자: 수학 취득 표준점수의 10% 가산점
+3. **모집인원 및 전형요소 반영 비율**:
+   - 정확한 모집인원은 공지에 따라 다를 수 있으나, 일반적으로 수능 성적이 주요 평가 기준입니다.
+4. **성적 산출 예시**:
+   - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학 응시자)
+현재 성적이 4.4정도라면, 수능에서 좋은 성적을 받은 경우 방사선학과에 지원할 수 있을 가능성이 있습니다. 그러나 정확한 예측은 실제 수능 점수가 결정적인 요인입니다.
+추천 사항:
+1. **수능 준비**: 현재 성적이 4.4정도라면, 수능 공부를 체계적으로 진행하여 최대한 높은 점수를 받는 것이 중요합니다.
+2. **모집요강 확인**: 정확한 모집요강과 전형요소 반영 비율을 확인해보세요.
+3. **추천서 및 자기소개서 작성**: 방사선학과에 지원하는 이유와 자신의 적합성을 잘 설명할 수 있는 추천서 및 자기소개서를 준비하세요.
+결론적으로, 현재 성적이 4.4정도라면 방사선학과에 지원 가능성이 있으나, 최종 결정은 실제 수능 점수와 모집요강을 바탕으로 하셔야 합니다.</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.01311197234013991</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2024년 경희대학교 방사선학과의 정시 최종 등록자들의 평균 수능 점수를 살펴보면, 지원 인원이 36명이고 경쟁률이 7.20인 경우, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 338.76이며, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균은 463.36입니다.
+이러한 통계를 바탕으로 볼 때:
+1. **경쟁률**: 7.20이라는 경쟁률은 상대적으로 낮지 않지만, 정원 내외 모두 지원자가 많아서 경쟁이 치열할 수 있습니다.
+2. **평균 점수**: 평균 점수가 높기 때문에 2.66은 약간 낮은 편입니다.
+따라서:
+- **위험성**: 2.66이라는 점수는 평균보다 상당히 낮습니다. 이 점수로는 충분한 경쟁력을 갖추지 못할 가능성이 있습니다.
+- **전략적 접근**: 
+  - 다른 전형(예: 특기자, 농어촌학생전형 등)을 고려해 볼 수 있습니다.
+  - 추가 지원과 함께 대비를 하거나, 학교생활기록부와 면접 준비에 더 집중할 필요가 있을 수 있습니다.
+결론적으로, 2.66이라는 점수는 위험한 편이지만, 다른 전형을 통해 보완하거나, 추가 지원을 고려해 볼 만합니다.</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.08485218036446526</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>3.66의 GPA는 좋은 점수지만, 경찰행정학전공의 경우 여러 요소가 고려됩니다. 특히 농어촌 전형은 지역적 배려와 농어촌 출신 학생들의 특성을 고려하기 때문에, GPA 외에도 다음과 같은 요소들이 중요하게 작용할 수 있습니다:
+1. **학교생활기록부 (학력)**: 학교생활기록부에서의 성적과 활동이 중요한 역할을 합니다. 특히 농어촌 출신이라는 점을 잘 보여줄 수 있는 내용이 포함되어 있으면 좋습니다.
+2. **면접**: 면접에서는 지원자의 인성, 의사소통 능력, 경찰직에 대한 이해도 등을 평가합니다. 3.66의 GPA를 가진 지원자라도 좋은 인상을 주는 면접을 준비하는 것이 중요합니다.
+3. **추천서 및 자기소개서**: 추천서와 자기소개서에서 농어촌 출신 특성을 잘 보여줄 수 있는 내용이 포함되어 있으면 도움이 됩니다.
+4. **동점자 처리 기준**: 동점자 처리 기준은 학교생활기록부 성적, 면접 성적이 중요합니다. GPA가 비슷한 경우 이런 요소들이 결정적인 역할을 할 수 있습니다.
+5. **추천서 및 자기소개서의 품질**: 추천서와 자기소개서에서 지원자의 열정과 적합성을 잘 보여줄 수 있는 내용이 포함되어 있으면 도움이 됩니다.
+6. **면접 성적**: 면접에서는 지원자의 인성, 의사소통 능력 등을 평가하기 때문에 좋은 성적이 나와야 합니다.
+결론적으로 3.66의 GPA는 충분히 경쟁력을 갖추고 있지만, 학교생활기록부, 추천서, 자기소개서, 면접 등 다양한 요소들이 함께 고려되기 때문에 확실한 답변을 드리기는 어렵습니다. 하지만 좋은 성적과 농어촌 출신 특성을 잘 보여줄 수 있다면 합격 가능성은 있습니다.
+추가적으로, 입학사정관이 지원자의 전반적인 적합성과 잠재력을 평가하기 때문에, GPA 외에도 다양한 요소들이 고려되기 때문에 최선을 다해 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.06314894176738156</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>25번의 순위는 매우 높은 점수를 요구하는 경우가 많습니다. 그러나 정시 일반학생 전형에서 25번까지 나온다면, 몇 가지 요인들을 고려해볼 필요가 있습니다:
+1. 모집단위와 전형요소: 특정 학과나 전형의 경쟁률이 높을수록 낮은 순위를 받는 가능성은 더 큽니다.
+2. 성적: 수능 점수가 충분히 높다면, 서류평가와 면접 등에서 좋은 평가를 받으면 가능성이 있습니다.
+3. 서류평가: 학생부, 추천서 등의 서류가 우수하다면 이점이 있을 수 있습니다.
+4. 면접 성적: 면접에서도 좋은 점수를 받는다면 전체적으로 높은 평점을 받을 수 있습니다.
+5. 동점자 처리 기준: 동점자 처리에서 유리한 위치에 있으면 도움이 될 수 있습니다.
+6. 학교 정책: 일부 대학에서는 25번까지의 지원자를 면접 등 추가 심사를 통해 선발할 수도 있습니다.
+결론적으로, 25번까지 나왔다는 것은 좋은 기회를 얻을 수 있다는 것을 의미하지만, 확실한 보장은 아닙니다. 최선을 다해 준비하고, 학교의 정시 모집원칙과 동점자 처리 방침을 잘 이해하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.1439712341956838</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 법경찰행정학부의 정시 모집요강을 바탕으로 추론해보겠습니다:
+1. 전형별 모집인원에서 일반학생전형(가군)은 35명입니다.
+2. 전형요소 반영비율에서 수능 위주로, 수능 최저기준 없음이라고 나와 있습니다.
+3. 평균 성적을 추정하기 위해서는 최근 몇 년간의 입학성적 분석이 필요합니다. 하지만 정확한 데이터가 제공되지 않았습니다.
+4. 일반적으로 대학별 학과별로 안정적인 합격을 위해서는 전년도 최저 등급보다 1-2등급 정도 높은 성적이 필요합니다.
+5. 동의대학교 법경찰행정학부의 최근 입학성적 분석을 보면:
+   - 2023년: 국어+수학+탐구(2과목) 평균 248점
+   - 2022년: 국어+수학+탐구(2과목) 평균 251점
+6. 이에 따르면, 2024년도에도 비슷한 수준의 성적이 필요할 것으로 예상됩니다.
+따라서, 안정적인 합격을 위해서는 국어+수학+탐구(2과목) 평균 250점 이상을 받는 것이 좋을 것 같습니다. 하지만 이는 추정치이며, 정확한 정보를 얻기 위해서는 동의대학교 입학처나 최근 입학생들의 성적 분석을 참고하는 것이 가장 좋습니다.
+또한, 수능 최저 기준이 없으므로, 가능하다면 더 높은 점수를 받는 것이 안전할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.3066306442672899</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 보육가정상담학과의 경우, 최종등록자들의 지원 경쟁률과 합격者的，你的问题似乎没有完整地用中文表达出来。你是在询问如果某人的国语等级为5.33，是否有可能被东义大学保育家庭咨询学专业录取吗？如果是这样，请允许我根据提供的信息进行回答。
+首先，我们需要查看保育家庭咨询学专业的具体录取标准和往年数据。从给定的信息中，我们可以看到：
+1. 该专业的国语等级平均分为5.22。
+2. 国语等级的标准差为0.33。
+这意味着大多数被录取的学生的国语等级集中在5.22 ± 0.33之间，即大约在4.89到5.55之间。因此，一个国语等级为5.33的学生处于平均值附近，有一定的竞争力。
+然而，最终是否能够录取还取决于其他因素，如总成绩、面试表现等。如果该学生的综合能力较强，特别是其他科目和面试表现优秀，那么被录取的可能性会更大。
+建议：
+1. 确保所有提交的材料真实有效。
+2. 准备充分的面试内容，展示自己的优势和潜力。
+3. 关注学校发布的最新招生信息和要求。
+综上所述，国语等级为5.33的学生有较好的机会被录取，但仍需综合考虑其他因素。建议密切关注学校的官方通知，并做好全面准备。</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.06661651312918701</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>3차 충원 합격자 발표와 등록이 이루어진 상황에서는 일반적으로 추가로 합격자가 나올 확률은 매우 낮습니다. 이미 3차까지 진행되었고, 각 차례마다 합격자를 선발하였으므로, 더 이상의 충원 기회는 거의 없을 것으로 예상됩니다.
+하지만 다음과 같은 요인들을 고려해볼 수 있습니다:
+1. 최종 등록일정: 아직 모든 등록이 완료되지 않았다면, 일부 학생들이 등록을 하지 않을 가능성이 있습니다.
+2. 동점자 처리: 만약 3차 충원 합격자가 정원보다 적게 선발되었다면, 동점자 처리가 이루어질 수 있습니다. 이 경우 예비 12번이 추가로 합격할 가능성은 있습니다.
+3. 입학사정관의 재평가: 일부 대학에서는 최종 등록 단계에서 입학사정관들이 다시 한번 학생들의 서류를 검토하여 결정을 내릴 수 있습니다.
+4. 기타 변수: 예상치 못한 변수가 발생할 수도 있으므로, 완벽히 배제하기는 어렵습니다.
+현재 상황에서는 최종 등록일정과 입학사정관의 재평가 가능성 등을 주시하면서 기다리는 것이 좋을 것 같습니다. 만약 추가로 합격자 발표가 이루어지지 않는다면, 대체 전형이나 다른 대학을 검토해보는 것도 고려해볼 만합니다.</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.2976595986471129</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>4.75라는 수능 점수는 상당히 높은 점수입니다. 한국의 대학입시에서 4.75는 매우 우수한 성적을 의미합니다. 그러나 유아교육학과에 지원할 때 다음과 같은 요소들을 고려해야 합니다:
+1. **모집단위와 전형**: 유아교육학과의 모집단위와 전형 방식이 중요합니다. 일부 학교에서는 수능 점수 외에도 학생부, 면접 등 다양한 평가 기준을 적용할 수 있습니다.
+2. **학생부 성적**: 4.75라는 수능 점수는 학생부 성적이 좋지 않아도 큰 도움이 될 것입니다. 특히 인성과 실력을 강조하는 전형에서는 학생부의 긍정적인 평가가 중요합니다.
+3. **면접 및 서류평가**: 면접이나 서류평가에서 좋은 결과를 얻는 것이 중요합니다. 유아교육학과는 교사로서 필요한 인성과 역량을 평가하기 때문에, 이러한 부분에서도 우수한 성적을 보여줘야 합니다.
+4. **전공 적합성**: 지원자의 전공 적합성을 입증하는 활동이나 경험을 잘 기재해야 합니다. 예를 들어, 유아교육 관련 프로젝트나 봉사활동 등을 잘 기록해두면 도움이 될 수 있습니다.
+5. **추천서 및 자기소개서**: 추천서와 자기소개서에서 지원자의 적합성을 강조하는 것이 중요합니다. 이 부분에서도 4.75라는 성적이 큰 장점이 될 것입니다.
+결론적으로, 4.75라는 높은 수능 점수는 유아교육학과에 지원할 때 매우 유리한 위치에 있습니다. 그러나 최종 결정은 모집단위와 전형 방식, 그리고 기타 평가 기준에 따라 달라질 수 있으므로, 해당 학교의 정확한 입시 정보를 확인하고 준비하는 것이 중요합니다.
+추가적으로, 만약 불안하다면 "https://ipsi.deu.ac.kr/main.do" 링크를 통해 더 자세한 정보를 얻어보는 것도 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.2087582854220398</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 보육가정상담학과 일반학생전형에 대한 정보를 바탕으로 분석해보겠습니다.
+1. **최종등록자 통계**:
+   - 지원 인원: 37명
+   - 경쟁률: 4.11 (37 / 9)
+   - 충원 합격 (후보순위): 17명
+2. **성적 분석**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 293.50
+   - 영어 등급의 평균: 4.12
+   - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균: 407.50
+3. **당신의 성적**:
+   - 환산 등급: 4.16
+4. **성적 비교**:
+   - 당신의 환산 등급(4.16)은 평균 점수(4.12)보다 약간 높습니다.
+   - 표준 변환 점수 합 평균(407.50)과 비슷하거나 약간 낮습니다.
+5. **합격 가능성**:
+   - 경쟁률이 4.11이며, 충원 합격자 수가 17명으로 지원 인원의 절반 정도입니다.
+   - 당신의 성적이 평균보다 약간 높으므로, 충분히 합격 가능성은 있습니다.
+6. **추천**:
+   - 추합까지 고려하면 더 높은 등급을 가진 지원자들이 있을 수 있으므로, 확실한 합격을 보장하기는 어렵습니다.
+   - 그러나 당신의 성적이 평균 이상이고 경쟁률이 낮아서 충분히 합격 가능성은 있습니다.
+결론적으로, 당신의 성적과 동의대학교 보육가정상담학과의 통계를 고려하면, 추합까지 포함해도 합격 가능성이 있지만 확실한 것은 아닙니다. 최종 결정을 내리기 위해서는 추가 정보와 개인적인 상황을 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0.04430391772248162</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2024년 서울대학교의 정시 모집에서 소프트웨어융합학과에 지원하기 위해서는 다음과 같은 점수와 등급을 얻어야 합니다:
+1. **전형 유형**: 다군 수능(일반학생전형)
+2. **모집단위 및 인원**:
+   - 단과대학: 공과대학
+   - 모집단위: 소프트웨어융합학과 (소프트웨어공학부)
+   - 모집인원: 45명
+3. **수능 반영 영역 및 가산점**:
+   - 국어(화법과작문 또는 언어와매체) 25%
+   - 수학(확률과통계 또는 미적분 또는 기하) 25%
+   - 영어 25%
+   - 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%
+   - 가산점: 수학(미적분 또는 기하) 응시자 : 수학 취득 표준점수의 10% 가산점
+4. **성적 산출 예시**:
+   - 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수 + 가산점(수학 응시자)
+5. **최종등록자 성적 분석**:
+   - 지원 인원: 146명
+   - 경쟁률: 약 3.27대 1 (146/45)
+   - 충원 합격 (후보순위): 63명
+6. **성적 평균**:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 약 317.87
+   - 영어 등급의 평균: 3.77
+   - 수능 4개 영역 등급의 평균: 4.49
+따라서, 소프트웨어융합학과에 정시로 들어가기 위해서는 다음과 같은 점수와 등급을 얻어야 합니다:
+- **국어**: 약 100점 이상 (표준점수)
+- **수학**: 미적분 또는 기하 응시자인 경우, 표준점수가 높은 것이 좋습니다. 예를 들어, 95점 이상이면 가산점을 받을 수 있습니다.
+- **영어**: 4등급 이상 (가장 낮은 등급)
+- **탐구 영역**: 사회탐구 또는 과학탐구 중에서 두 곳의 표준점수를 합산하여 높은 점수를 얻어야 합니다.
+이러한 성적을 기반으로 경쟁률과 충원 인원 등을 고려하면, 약 4등급 이상의 영어 등급과 수학에서 높은 표준점수를 받는 것이 유리할 것으로 보입니다. 그러나 정확한 점수는 매년 변동될 수 있으므로, 최신 정보와 예상 경쟁률을 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>5.292486524468749e-15</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2024학년도 입학사정관 심사에서 소프트웨어융합학과의 경우, 면접 점수와 서류 평가 점수가 각각 중요하게 고려됩니다. 특히 서류평가 영역에서는 학업역량과 전공적합성에 중점을 둡니다.
+1. **면접 점수**: 면접에서는 지원동기, 학업역량, 전공적합성을 평가합니다. 지원자들은 이 세 가지 요소를 잘 준비하고 답변해야 합니다.
+2. **서류평가**:
+   - **학업역량**: 고교 성적이 중요하며, 수능 점수와 탐구 영역의 성적을 포함합니다.
+   - **전공적합성**: 지원자가 해당 전공에 대한 이해도와 관심사를 보여주어야 합니다. 이는 진로 탐색 활동이나 관련 경험 등을 통해 입증할 수 있습니다.
+3. **서류 준비**:
+   - **학생부**: 학교생활기록부를 체크하고, 성적과 활동을 잘 정리해야 합니다.
+   - **면접 질문 답변**: 지원 동기와 학업계획, 학업역량에 대한 경험 등을 미리 준비해두세요.
+   - **진로 탐색 활동**: 관련 활동이나 프로그램 참여 경력을 자세히 기재하세요.
+4. **부정적 사례**:
+   - 과장된 내용 기재
+   - 동일한 내용의 의도적인 반복 기재
+   - 학교생활기록부 작성 시 주체를 ‘저는’으로 기재하는 것 등은 피해야 합니다.
+따라서, 서류 평가와 면접 모두 중요합니다. 특히 서류평가에서는 세부적이고 진실된 내용을 제공하여 입학사정관의 판단에 긍정적인 영향을 미치도록 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>0.007652032293379575</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 소프트웨어공학부의 경우, 수능(일반학생전형) 최초합격자의 성적 분석을 통해 다음과 같은 정보가 있습니다:
+- 모집단위: 소프트웨어공학부
+- 모집인원: 45명
+- 지원 인원: 12명
+- 경쟁률: 약 3.75 (12/45)
+- 충원 합격 (후보순위): 4명
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 284.58
+- 영어 등급의 평균: 4.00
+- 수능 4개 영역 등급의 평균: 4.96
+이 정보를 바탕으로, 정시 성적이 4.08인 경우 다음과 같은 점을 고려해야 합니다:
+1. **경쟁률**: 현재 경쟁률은 약 3.75로 상대적으로 낮습니다.
+2. **평균성적**: 지원자들의 평균 성적이 284.58이며, 이는 비교적 낮은 수준입니다.
+3. **영어 등급**: 지원자의 영어 등급 평균이 4.00으로, 4.08과 매우 유사합니다.
+따라서, 정시 성적이 4.08인 경우 다음과 같은 확률을 가질 수 있습니다:
+- **합격 가능성**: 상당히 높습니다.
+- **경쟁자들보다 우위**: 평균성적(284.58)과 비교해보면, 4.08의 영어 등급은 지원자들 중에서 뛰어난 성적으로 보입니다.
+결론적으로, 정시 성적이 4.08인 경우 소프트웨어공학부 최초합격 가능성은 매우 높습니다. 그러나 최종 결정은 수능 점수 외에도 학생부 등 다른 평가 요소에 따라 달라질 수 있으므로, 정확한 확률을 알기 위해서는 전체 지원자들의 성적 분포와 학생부 평가 결과를 고려해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>0.1137256026178071</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2024학년도 학생부종합전형의 경우, 소프트웨어융합학과는 정원외 모집단위로 설정되어 있습니다. 이에 따라 평균 등급을 보고 판단해보겠습니다.
+- **정시모집군 (나군)**: 
+  - **평균 등급**: 5등급
+  - **전형요소 반영비율**: 서류(학생부)60% + 면접40%
+- **정원외 모집단위**:
+  - **서류평가 영역 및 배점**:
+    - 공동체역량: 120점 (1등급 120점, 5등급 84점)
+    - 학업역량: 240점 (1등급 240점, 5등급 168점)
+    - 전공적합성: 240점 (1등급 240점, 5등급 168점)
+- **면접평가**:
+  - 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+이러한 정보를 바탕으로 평균 등급을 판단해보겠습니다:
+1. **서류평가 영역**:
+   - 공동체역량: 5등급 (84점)
+   - 학업역량: 5등급 (168점)
+   - 전공적합성: 5등급 (168점)
+2. **면접평가 영역**:
+   - 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+따라서, 평균 등급이 5등급인 경우에도 서류평가에서 최저 점수를 받더라도 면접평가에서 좋은 성과를 거두면 충분히 합격 가능성이 있습니다. 특히, 면접에서는 지원동기와 전공적합성에 대한 열정적인 답변이 중요합니다.
+결론적으로, 5등급으로는 합격 가능성은 있으나, 서류평가와 면접평가 모두 잘 준비해야 합니다. 특히 면접에서의 성과가 중요한 역할을 할 것입니다.</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>0.1000803790643534</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>4.28이라는 영어 등급은 대략 중등급 정도로 보입니다. 하지만 신소재공학과에 입학하기 위해서는 여러 요인을 고려해야 합니다.
+1. **전체 경쟁률**: 신소재공학과의 경쟁률이 높습니다 (예: 지원 인원 56명, 모집 인원 81명). 이는 입학이 어렵다는 것을 의미합니다.
+2. **성적 평균**: 제공된 데이터에서 신소재공학과의 성적 평균은 다음과 같습니다:
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 271.64
+   - 영어 등급의 평균: 5.06
+3. **성적 분포**: 
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차: 19.52
+   - 영어 등급의 표준 편차: 1.22
+4. **성적 분석**:
+   - 제공된 평균 성적과 비교해보면, 4.28은 약간 낮은 수치입니다.
+   - 하지만 표준 편차가 높아서, 일부 지원자들은 더 낮은 점수를 가지고도 입학할 수 있습니다.
+5. **추천**:
+   - 영어 성적이 중요한 학과이므로, 영어 공부에 집중하는 것이 좋습니다.
+   - 다른 과목에서도 최선을 다해 성적을 높이는 것이 중요합니다.
+   - 추가 지원 자료 (면접 준비 등)를 잘 준비하여 입학사정관의 인상을 좋은 쪽으로 남기는 것도 도움이 될 수 있습니다.
+결론적으로, 4.28이라는 점수만으로는 확실하게 입학할 수 있는 보장은 없습니다. 하지만 적극적인 노력과 지원 자료를 잘 준비한다면 가능성은 여전히 존재합니다.</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>0.1375239989736679</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2024년 경희대학교의 수능 위주 전형(가군, 나군, 다군)에서는 학생부교과와 수능 성적만을 기준으로 평가하며, 자기소개서는 필수적으로 요구하지 않습니다. 따라서 수능 일반학생전형에 지원할 때는 자기소개서를 작성하지 않아도 됩니다.
+하지만 다음과 같은 사항들을 참고하시면 좋을 것 같습니다:
+1. **학업역량과 전공적합성**: 학생부교과 성적이 중요한 평가 기준이므로, 수능 위주로 평가되는 만큼 학업 역량과 전공 적합성을 잘 보여줄 수 있는 내용들을 강조하는 것이 좋습니다.
+2. **면접 준비**: 일부 모집단위에서는 면접을 실시할 수 있으니, 이에 대비하여 지원 동기와 학업 계획 등을 명확하게 준비해두세요.
+3. **서류평가**: 서류 평가에서도 학생부교과 성적 외에도 출결, 행동특성 등 다양한 요소를 종합적으로 평가하므로, 이 부분도 잘 준비하는 것이 중요합니다.
+4. **추천서**: 일부 모집단위에서는 추천서 제출을 요구할 수 있으니, 해당 조건에 맞춰 준비해두세요.
+5. **면접 질문 공통문항**: 면접 시 지원 동기와 학업 계획 등이 포함될 가능성이 있으므로, 이 부분에 대해 미리 대비해보는 것이 좋습니다.
+자기소개서가 필요 없는 수능 위주 전형에서라도, 지원자의 학업 역량과 전공 적합성을 잘 보여줄 수 있는 방법들을 활용하여 최선을 다하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>5.761924558915296e-10</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>4.5라는 점수는 상당히 높은 수준입니다. 하지만 추가모집에 합격할 확률을 판단하기 위해서는 몇 가지 요소를 고려해야 합니다:
+1. 모집단위와 경쟁률:
+   - 지원하고자 하는 단과대학 및 모집단위의 경쟁률
+   - 해당 모집단위에서 4.5 점수로 합격한 이력이 있는지
+2. 지원 자격:
+   - 고교 유형별 지원 자격 여부 (일반고, 특성화고 등)
+   - 전형명 (실기/실적, 수능, 학생부종합 등)
+3. 추가모집의 특징:
+   - 모집인원과 지원 인원
+   - 충원 합격자 수
+4. 기타 요소:
+   - 영어 등급
+   - 탐구 과목 성적
+   - 다른 전형에서의 성적 (예: 학생부종합)
+현재 정보만으로는 확실한 답변을 드리기 어렵습니다. 동의대학교의 공식 입학정보나 추가모집 안내를 확인하시고, 해당 모집단위의 경쟁률과 지원 인원 등을 파악하신 후 결정하시는 것이 좋겠습니다.
+추가로, 동의대학교의 입학 홈페이지나 총장실에서 제공하는 정보를 참고하거나, 학교 관계자에게 직접 문의해보는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>0.3409193784171278</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 신소재공학과와 분자나노공학과의 경우, 모집인원은 56명이고 지원 인원은 81명으로 경쟁률이 1.45입니다. 
+국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균은 271.64이며, 영어 등급의 평균은 5.06이고 수능 4개 영역 등급의 평균은 5.78입니다.
+이러한 통계를 바탕으로 추정하면, 신소재공학부에 합격하기 위해서는 대략적으로 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합이 270점 이상이고 영어 등급이 5.0 이상이며 수능 4개 영역 등급이 5.5 이상일 가능성이 높습니다.
+하지만 이는 통계적인 추정치로 실제 합격 기준은 대학의 입시 정책과 변동될 수 있으므로, 최종 합격 가능성은 공식 발표된 합격선을 확인하는 것이 가장 정확합니다.</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>0.1478341744715984</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2024년 동아대학교 정시 모집에서 작년의 상황을 고려해보겠습니다.
+1. **전형 및 모집단위**: 
+   - 전형명: 수능(일반학생전형)
+   - 단과대학: 공과대학
+   - 모집단위: 신소재공학과
+2. **최종 등록자 통계**:
+   - 모집인원: 105명
+   - 지원인원: 367명
+   - 경쟁률: 약 3.54 (367/105)
+   - 충원 합격 (후보순위): 28명
+   - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균: 약 347.10
+   - 영어 등급의 평균: 4.56
+3. **표준점수 환산**:
+   - 작년 신소재공학과 최종 평균 표준점수가 448점이었다면, 이는 약 1점을 초과하는 수치입니다.
+   - 현재 표준점수 447점으로 환산된다면, 작년보다 약간 낮은 점수로 충원 합격을 하였습니다.
+**가능성 분석**:
+- **경쟁률**: 작년과 비슷한 경쟁률이었으므로, 작년보다 낮은 표준점수로도 충원 합격 가능성이 있습니다.
+- **지원자 수**: 작년에 비해 지원자가 더 많았다면, 표준점수가 약간 낮아져도 충원 합격할 수 있습니다.
+- **출제 경향 및 평균 점수**: 작년과 동일한 수능 출제 경향이었다면, 작년보다 낮은 표준점수로도 충원 합격 가능성이 있습니다.
+**결론**:
+447점으로 환산된 표준점수가 작년 신소재공학과의 최종 평균 표준점수(약 448점)보다 약간 낮더라도, 작년과 비슷한 경쟁률 및 지원자 수라면 충원 합격 가능성은 있습니다. 하지만 확실하지는 않으므로, 정확한 결과를 확인하기 위해서는 동아대학교 입학처에 문의하거나 공식 발표를 기다리는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>0.02273809261570075</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>4.1~4.2 등급으로 신소재공학부(신소재공학과, 고분자나노공학과)의 일반학생전형에 합격할 확률은 상당히 낮습니다. 이유는 다음과 같습니다:
+1. **성적 기준**: 신소재공학부의 수능 성적 기준은 국어(25%), 수학(25%), 영어(25%), 탐구(25%)로 합산됩니다.
+2. **등급 변환**: 4.3 등급은 대략 100점대 중반에서 110점대 초반의 표준점수를 의미합니다. 이는 4.1~4.2 등급으로 변환되면 약 95점대 후반에서 100점대 초반 정도가 됩니다.
+3. **경쟁률**: 신소재공학부는 인기 학과로, 일반적으로 높은 경쟁률을 보입니다. 이에 따라 수능 성적 기준이 상당히 높습니다.
+4. **합격 예상 점수**: 95점대 후반에서 100점대 초반의 표준점수로는 일반적으로 합격하기 어렵습니다. 대부분의 합격자들은 100점대 중후반에서 110점대를 기록합니다.
+따라서, 현재 성적 상태에서는 신소재공학부에 합격하기 어려울 것으로 보입니다. 다른 전형이나 대안을 고려해보는 것이 좋겠습니다:
+- **학생부종합전형**: 성적이 낮더라도 뛰어난 학생부나 면접 성적으로 합격할 수 있습니다.
+- **특기자전형**: 특정 분야에서 뛰어난 실력을 보유하고 있다면 특기자전형을 고려해볼 만합니다.
+- **재입학**: 현재 성적이 낮더라도 재수를 통해 성적을 향상시키는 방법도 있습니다.
+추가적으로, 동의대학교 입학 홈페이지나 학부모 상담 센터에 문의하여 자세한 정보를 얻어보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>0.2728733266498182</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과 나군 수능(일반학생전형)에 대한 최종 등록자들의 성적 정보를 요약하면 다음과 같습니다:
+- 모집인원 : 15명
+- 지원인원 : 37명
+- 경쟁률 : 약 2.47:1 (37/15)
+- 충원 합격자 수 : 15명
+성적 관련 통계:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균 : 434.13
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 표준 편차 : 7.46
+- 영어 등급의 평균 : 3.25
+- 영어 등급의 표준 편차 : 0.82
+- 수능 4개 영역 등급의 평균 : 4.31
+- 수능 4개 영역 등급의 표준 편차 : 0.23
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 평균 : 434.13
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합의 표준 편차 : 7.46
+이 정보를 바탕으로, 인공지능학과에 지원하려는 경우 대략적인 목표 성적을 설정하는 데 도움이 될 수 있습니다. 하지만 이외에도 전형 요소와 실기 점수 등 다양한 평가 항목이 있으므로, 정확한 합격 가능성을 판단하기 위해서는 전체 전형 방침과 기준을 꼭 확인해보시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>0.3759273376902493</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>5.27이라는 수능 점수는 상당히 높은 점수입니다. 하지만 실제로 어떤 학과에 지원할 수 있는지는 여러 요소에 따라 달라집니다:
+1. **모집단위와 전형 유형**: 각 모집단위별로 수능 반영 영역과 가산점이 다르므로, 정확한 판단을 위해서는 해당 모집단위의 특성을 확인해야 합니다.
+2. **수능 성적 반영 방식**:
+   - 일반적으로 국어(화법과작문 또는 언어와매체) 25% + 수학(확률과통계 또는 미적분 또는 기하) 25% + 영어 25% + 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합) 25%로 반영됩니다.
+   - 일부 모집단위에서는 수학에 가산점이 부여될 수 있습니다.
+3. **모집인원과 지원자 수**: 경쟁률이 높은 학과는 낮은 점수라도 충원 가능할 수 있지만, 경쟁률이 낮은 학과는 높은 점수가 필요할 수 있습니다.
+4. **기타 요소**: 면접 성적, 서류 평가 결과 등도 고려됩니다.
+5. **예시**:
+   - 국어 108 + 수학(미적분) 108 + 영어 123 + 탐구 47 (사회탐구) = 469
+   - 이 점수로 경쟁률이 낮은 학과는 충원 가능할 수 있습니다.
+따라서, 5.27이라는 성적으로 추합 가능한지는 모집단위와 전형 유형에 따라 달라집니다. 정확한 판단을 위해서는 해당 모집단위의 특성을 확인하고, 실제 지원할 수 있는 학과를 파악하는 것이 중요합니다.
+추천 사항:
+1. **모집단위별 특성** 확인: 지원하고자 하는 모집단위의 수능 반영 영역과 가산점 등을 확인해야 합니다.
+2. **실제 성적 산출**: 제공된 예시와 비슷한 점수로 실제 성적을 산출해보세요.
+3. **동점자 처리 기준** 확인: 해당 모집단위의 동점자 처리 기준을 확인하여, 실질적으로 충원 가능한 학과를 파악합니다.
+이 정보를 바탕으로 더 정확한 판단을 내릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>0.1248515598841702</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 상당히 높은 수준입니다. 하지만 소프트웨어공학부에 지원할 때 다음과 같은 요소들을 고려해야 합니다:
+1. **전형방법**: 동의대학교의 정시 모집에서는 일반적으로 수능 성적과 학생부 교과성적이 함께 반영됩니다.
+2. **수능 성적**: 
+   - 국어, 수학(미적분 또는 기하), 영어, 탐구 등 4개 영역을 반영합니다.
+   - 수학은 미적분이나 기하 중 하나를 선택하여 응시해야 합니다.
+3. **학생부 교과성적**:
+   - 전반적으로 높은 성적이 필요합니다.
+   - 특히 국어, 수학, 영어 등 주요 과목에서 높은 점수를 받는 것이 중요합니다.
+4. **특기사항 및 활동**: 
+   - 프로그래밍 경시대회나 관련 동아리 활동 경험 등을 강조할 수 있습니다.
+   - 인터뷰에서는 이러한 경험과 열정을 잘 전달해야 합니다.
+5. **면접 성적**:
+   - 면접에서도 좋은 성적이 필요합니다. 특히 학업역량과 전공적합성을 잘 보여줄 수 있어야 합니다.
+6. **추천서**: 
+   - 교사나 선생님의 추천서가 있다면 도움이 될 수 있습니다.
+4.2라는 점수는 좋은 성적이지만, 소프트웨어공학부는 경쟁률이 높은 학과 중 하나입니다. 따라서 다음과 같은 전략을 고려해 보세요:
+- **전형별 지원**: 가군, 나군 모두를 고려하여 지원할 수 있습니다.
+- **학생부 교과성적 강화**: 특히 국어, 수학, 영어 등 주요 과목에서 높은 성적이 필요합니다.
+- **특기사항 및 활동 강조**: 프로그래밍 경시대회나 관련 동아리 활동 경험을 잘 전달해야 합니다.
+결론적으로 4.2라는 점수는 가능성이 있지만, 경쟁률이 높으므로 추가적인 준비와 노력이 필요합니다.</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>0.01812259866445395</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要考虑以下几个因素：
+1. **东义大学的录取标准**：根据您提供的信息，东义大学在不同专业和招生类别下的具体录取标准可能有所不同。特别是对于普通学生类型（一般学生），需要查看该专业的最低录取分数线。
+2. **成绩换算**：您提到的成绩3.92是标准化后的分数。我们需要知道这个分数对应的原始成绩是多少，以及它是否符合化学环境工程学部的录取要求。
+3. **具体专业的要求**：不同专业的录取标准可能有所不同。例如，有的专业可能会有特定的科目要求或者最低分数线。
+4. **其他因素**：除了成绩之外，还有可能需要考虑面试、推荐信等其他方面的表现。
+根据您提供的信息：
+- 东义大学化学环境工程学部2024年的招生计划是15人。
+- 支持普通学生类型（一般学生）的申请。
+- 招生人数为15人，实际报名人数为67人，竞争比约为4.5:1。
+从这些数据来看，虽然您的成绩3.92在标准化后可能是一个不错的分数，但具体是否能够被录取还需要考虑以下几个方面：
+1. **最低分数线**：您需要知道化学环境工程学部的具体最低录取分数线是多少。如果这个分数线低于或接近您的成绩，则有可能被录取。
+2. **竞争情况**：虽然您的成绩不错，但由于报名人数较多（67人），仍然存在一定的竞争压力。
+3. **其他因素**：除了成绩之外，面试表现、推荐信等也可能会影响最终的录取结果。
+建议您：
+- 查看东义大学化学环境工程学部的具体招生简章和往年录取分数线。
+- 如果可能的话，咨询学校的招生办公室获取更详细的信息。
+- 准备好所有必要的申请材料，并确保在截止日期前提交。</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>0.01003839237135881</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학공학과(화학환경공학부)에 지원하시려면, 수능 일반학생전형을 통해 지원할 수 있습니다. 하지만 성적만으로 결정되는 것은 아닙니다. 다음 사항들을 확인해 보세요:
+1. **모집단위와 모집인원**: 화학공학과는 공과대학의 학과로 분류되므로, 해당 부문에 대한 정보를 참조해야 합니다.
+2. **성적 반영방법**:
+   - 수능 성적은 국어(화법과작문 또는 언어와매체), 수학(확률과통계 또는 미적분 또는 기하), 영어, 탐구(사회탐구 또는 과학탐구 또는 직업탐구 - 2개 과목 합)의 4개 영역을 반영합니다.
+   - 가산점은 수학(미적분 또는 기하) 응시자에게만 적용됩니다.
+3. **성적 평균 및 경쟁률**:
+   - 화학공학과의 성적이 4.25로, 이는 좋은 성적입니다.
+   - 하지만 경쟁률이 높은 학과일 수 있으므로, 다른 지원자의 성적을 고려해야 합니다.
+4. **전형요소 반영비율**:
+   - 일반학생전형의 경우, 수능 성적이 100% 반영됩니다.
+5. **최종 등록자 성적 분석**:
+   - 화학공학과의 최종 등록자의 평균 성적을 확인해 보세요. 예를 들어, 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합의 평균이 378.15이고, 표준 편차가 24.99일 때, 4.25는 상당히 높은 성적입니다.
+6. **서류 및 면접**:
+   - 서류평가와 면접 평가도 중요합니다. 학생부종합 평가 영역(공동체역량, 학업역량, 전공적합성)을 잘 준비해야 합니다.
+7. **면접 점수**:
+   - 면접 점수가 높은 경우 경쟁력을 높일 수 있습니다.
+따라서 4.25의 성적이 좋은데, 화학공학과는 경쟁률이 높을 수 있으므로 추가적인 준비가 필요합니다. 서류와 면접에서도 최선을 다해야 합니다.</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>0.06334308522249503</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 대략적인 평균 등급을 나타내는 것으로 보이네요. 하지만 정시 전형의 경쟁률과 모집인원, 지원자들의 성적 분포 등을 고려해야 합니다.
+영화학과에 대한 몇 가지 정보를 바탕으로 추론해보겠습니다:
+1. 2024학년도 영화학과는 5명을 모집하며, 11명이 지원했습니다.
+2. 경쟁률은 약 2.2:1입니다.
+3. 평균 수능 성적은 286.77점으로 보입니다.
+현재의 4.2 등급은 대략 290-300 점 정도를 의미할 것입니다. 이는 현재 정보로 볼 때 경쟁률을 고려하면 합격 가능성이 높아 보입니다:
+1. 경쟁률이 낮기 때문에 수능 성적이 상대적으로 좋으면 유리합니다.
+2. 평균 수능 점수가 286.77점으로 현재의 점수는 약간 더 높습니다.
+하지만 정확한 합격 확률을 예측하기 위해서는:
+1. 지원자의 전체 성적 분포를 확인해야 합니다.
+2. 입학사정관들의 평가 결과도 중요합니다.
+3. 실기고사 성적이 포함되는지 여부를 파악해야 합니다.
+결론적으로, 현재의 점수로는 합격 가능성이 높아 보이지만, 최종 합격 여부는 입학사정관들의 평가와 전체 지원자의 성적 분포에 따라 결정될 수 있습니다. 따라서 최선을 다해 준비하고 기다리는 것이 좋겠습니다.</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>0.1515251270323195</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>以下是面试流程的中文翻译：
+韩国语原文：
+나군 학생부종합(조기취업형계약학과전형) 면접평가 방법에서 구분은 면접절차이며, 내용은 
+①대기실 입실 ⇨ 
+②신분 확인 ⇨ 
+③고사장 앞 이동 ⇨ 
+④고사장 입실 ⇨ 
+⑤지원동기 및 학업계획 발표 ⇨ 
+⑥학업역량, 전공적합성 관련 공통문항 발표 및 질의응답 ⇨ 
+⑦기타 질의응답(제출서류 진위 여부 등) ⇨ 
+⑧퇴실이다.
+根据上述信息，面试流程如下：
+1. 进入候考室
+2. 身份确认
+3. 移动到考场前
+4. 进入考场
+5. 发表个人动机和学业计划
+6. 讲述与学业能力、专业适应性相关的一般问题并回答质询
+7. 回答其他问题（提交文件的真实性等）
+8. 离场
+这个流程确保了面试的有序进行，并且让面试官能够全面了解考生的情况。</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>0.2286351714266683</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>GPT-4o-mini Average</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>0.339790265538628</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Google Gemma-2-9b-it Average</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>0.1858360492978209</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct Average</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>0.1607579339052165</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
           <t>Total Average</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="D204" t="n">
-        <v>0.2628131574182245</v>
+      <c r="D305" t="n">
+        <v>0.2287947495805552</v>
       </c>
     </row>
   </sheetData>
